--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2021_2022/Skill Corner/physical_bottom15.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2021_2022/Skill Corner/physical_bottom15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,202 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
     </row>
@@ -684,85 +679,82 @@
         <v>147.4953199513242</v>
       </c>
       <c r="O2" t="n">
-        <v>351.5682706742901</v>
+        <v>52333.70619835488</v>
       </c>
       <c r="P2" t="n">
-        <v>31673.51839026361</v>
+        <v>1744.458084636764</v>
       </c>
       <c r="Q2" t="n">
-        <v>1744.458084636764</v>
+        <v>8776.730962659525</v>
       </c>
       <c r="R2" t="n">
-        <v>5093.12834359921</v>
+        <v>3653.996362457088</v>
       </c>
       <c r="S2" t="n">
-        <v>2001.146893083336</v>
+        <v>328.9775889458527</v>
       </c>
       <c r="T2" t="n">
-        <v>188.8248616833393</v>
+        <v>1323.168328570266</v>
       </c>
       <c r="U2" t="n">
-        <v>743.7061940840405</v>
+        <v>63.18963131467353</v>
       </c>
       <c r="V2" t="n">
-        <v>36.4709305689043</v>
+        <v>4977.16101636339</v>
       </c>
       <c r="W2" t="n">
-        <v>2744.853087167376</v>
+        <v>392.1658448270928</v>
       </c>
       <c r="X2" t="n">
-        <v>225.2957922522436</v>
+        <v>529.4816432066449</v>
       </c>
       <c r="Y2" t="n">
-        <v>320.0530985700253</v>
+        <v>29.96490000991458</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.28476490037018</v>
+        <v>362.5207256422845</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.3397211508364</v>
+        <v>58.56503557471971</v>
       </c>
       <c r="AB2" t="n">
-        <v>34.38807701580193</v>
+        <v>56105.96283122642</v>
       </c>
       <c r="AC2" t="n">
-        <v>34555.13632346586</v>
+        <v>1870.20261012079</v>
       </c>
       <c r="AD2" t="n">
-        <v>1870.20261012079</v>
+        <v>10979.11110456454</v>
       </c>
       <c r="AE2" t="n">
-        <v>6500.846045612207</v>
+        <v>4496.954459011945</v>
       </c>
       <c r="AF2" t="n">
-        <v>2584.069930769102</v>
+        <v>396.0982367987514</v>
       </c>
       <c r="AG2" t="n">
-        <v>232.0557399754474</v>
+        <v>1306.284384018495</v>
       </c>
       <c r="AH2" t="n">
-        <v>711.6655062997262</v>
+        <v>60.29416016299261</v>
       </c>
       <c r="AI2" t="n">
-        <v>35.00235311700759</v>
+        <v>5803.243279796331</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3295.735437068828</v>
+        <v>456.3949676450158</v>
       </c>
       <c r="AK2" t="n">
-        <v>267.058093092455</v>
+        <v>601.6697598851421</v>
       </c>
       <c r="AL2" t="n">
-        <v>374.604305572977</v>
+        <v>32.08936414156832</v>
       </c>
       <c r="AM2" t="n">
-        <v>20.42260902016845</v>
+        <v>418.8278526458677</v>
       </c>
       <c r="AN2" t="n">
-        <v>267.4873268375051</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>44.14414209697417</v>
+        <v>72.91525860686612</v>
       </c>
     </row>
     <row r="3">
@@ -809,85 +801,82 @@
         <v>156.7184119706266</v>
       </c>
       <c r="O3" t="n">
-        <v>354.9454020803593</v>
+        <v>51948.61471499027</v>
       </c>
       <c r="P3" t="n">
-        <v>33143.72148408748</v>
+        <v>1731.618107901319</v>
       </c>
       <c r="Q3" t="n">
-        <v>1731.618107901319</v>
+        <v>8554.18798325721</v>
       </c>
       <c r="R3" t="n">
-        <v>5147.761166424938</v>
+        <v>3463.775125276961</v>
       </c>
       <c r="S3" t="n">
-        <v>1962.389010077122</v>
+        <v>316.1217156053455</v>
       </c>
       <c r="T3" t="n">
-        <v>188.614174028178</v>
+        <v>1216.06543851126</v>
       </c>
       <c r="U3" t="n">
-        <v>713.3917928135604</v>
+        <v>58.36458034930485</v>
       </c>
       <c r="V3" t="n">
-        <v>35.95462929186392</v>
+        <v>4679.841732788172</v>
       </c>
       <c r="W3" t="n">
-        <v>2675.780802890682</v>
+        <v>374.4850782737215</v>
       </c>
       <c r="X3" t="n">
-        <v>224.5688033200419</v>
+        <v>530.7561315048951</v>
       </c>
       <c r="Y3" t="n">
-        <v>333.3224805747934</v>
+        <v>29.68882941923114</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.90409280192561</v>
+        <v>367.4188177059396</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.9924504652521</v>
+        <v>59.10166837794829</v>
       </c>
       <c r="AB3" t="n">
-        <v>36.6700343188285</v>
+        <v>55449.29628723413</v>
       </c>
       <c r="AC3" t="n">
-        <v>37491.27355372414</v>
+        <v>1848.306385256781</v>
       </c>
       <c r="AD3" t="n">
-        <v>1848.306385256781</v>
+        <v>10290.13020807716</v>
       </c>
       <c r="AE3" t="n">
-        <v>6683.468867100143</v>
+        <v>4073.272768601992</v>
       </c>
       <c r="AF3" t="n">
-        <v>2586.199281922567</v>
+        <v>371.0893387755829</v>
       </c>
       <c r="AG3" t="n">
-        <v>242.7305004002006</v>
+        <v>1203.486822794926</v>
       </c>
       <c r="AH3" t="n">
-        <v>772.9631629487602</v>
+        <v>58.80146813535959</v>
       </c>
       <c r="AI3" t="n">
-        <v>38.79350868563495</v>
+        <v>5276.762724361939</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3359.162444871327</v>
+        <v>429.8862712142489</v>
       </c>
       <c r="AK3" t="n">
-        <v>281.5240090858355</v>
+        <v>589.363168605322</v>
       </c>
       <c r="AL3" t="n">
-        <v>404.0405326478829</v>
+        <v>30.59224156594124</v>
       </c>
       <c r="AM3" t="n">
-        <v>20.5563168299369</v>
+        <v>434.6941465925614</v>
       </c>
       <c r="AN3" t="n">
-        <v>300.05995184869</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>51.83991677995741</v>
+        <v>80.32818410328242</v>
       </c>
     </row>
     <row r="4">
@@ -934,85 +923,82 @@
         <v>157.6409391601278</v>
       </c>
       <c r="O4" t="n">
-        <v>366.4456852195269</v>
+        <v>53391.23375367413</v>
       </c>
       <c r="P4" t="n">
-        <v>33697.33196665323</v>
+        <v>1779.709568607853</v>
       </c>
       <c r="Q4" t="n">
-        <v>1779.709568607853</v>
+        <v>9081.016039417793</v>
       </c>
       <c r="R4" t="n">
-        <v>5430.222791519622</v>
+        <v>3752.139626639193</v>
       </c>
       <c r="S4" t="n">
-        <v>2134.014804732206</v>
+        <v>347.8389396661112</v>
       </c>
       <c r="T4" t="n">
-        <v>202.2942600769132</v>
+        <v>1305.405345990961</v>
       </c>
       <c r="U4" t="n">
-        <v>722.8992665112601</v>
+        <v>63.56810014932</v>
       </c>
       <c r="V4" t="n">
-        <v>37.14784489482513</v>
+        <v>5057.542048654025</v>
       </c>
       <c r="W4" t="n">
-        <v>2856.914071243467</v>
+        <v>411.4127814715822</v>
       </c>
       <c r="X4" t="n">
-        <v>239.4421049717383</v>
+        <v>551.7598101633007</v>
       </c>
       <c r="Y4" t="n">
-        <v>343.9580792107128</v>
+        <v>33.25259411351902</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.10143616325007</v>
+        <v>376.8246906836832</v>
       </c>
       <c r="AA4" t="n">
-        <v>239.5589813127844</v>
+        <v>67.87742527970298</v>
       </c>
       <c r="AB4" t="n">
-        <v>41.67944567312828</v>
+        <v>56516.62127307475</v>
       </c>
       <c r="AC4" t="n">
-        <v>35657.40609146039</v>
+        <v>1883.886934694195</v>
       </c>
       <c r="AD4" t="n">
-        <v>1883.886934694195</v>
+        <v>10733.19631440483</v>
       </c>
       <c r="AE4" t="n">
-        <v>6544.580689099688</v>
+        <v>4312.618816691724</v>
       </c>
       <c r="AF4" t="n">
-        <v>2516.021865274301</v>
+        <v>389.5345260098912</v>
       </c>
       <c r="AG4" t="n">
-        <v>232.2341421770468</v>
+        <v>1117.137960911058</v>
       </c>
       <c r="AH4" t="n">
-        <v>665.0575266527248</v>
+        <v>53.41661546223126</v>
       </c>
       <c r="AI4" t="n">
-        <v>33.76481949135154</v>
+        <v>5429.755327008506</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3181.079391927025</v>
+        <v>442.9516936758203</v>
       </c>
       <c r="AK4" t="n">
-        <v>265.9989616683983</v>
+        <v>618.3955624205555</v>
       </c>
       <c r="AL4" t="n">
-        <v>388.2274183361265</v>
+        <v>32.70532314320102</v>
       </c>
       <c r="AM4" t="n">
-        <v>18.5457231537797</v>
+        <v>438.6660858181994</v>
       </c>
       <c r="AN4" t="n">
-        <v>280.5300504440584</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>48.64606327139905</v>
+        <v>80.27597693820063</v>
       </c>
     </row>
     <row r="5">
@@ -1059,85 +1045,82 @@
         <v>133.1755720491751</v>
       </c>
       <c r="O5" t="n">
-        <v>367.0068116371719</v>
+        <v>54258.01520514998</v>
       </c>
       <c r="P5" t="n">
-        <v>31524.88365521651</v>
+        <v>1808.598090619655</v>
       </c>
       <c r="Q5" t="n">
-        <v>1808.598090619655</v>
+        <v>9131.221849461936</v>
       </c>
       <c r="R5" t="n">
-        <v>4906.723527640841</v>
+        <v>3602.048899355684</v>
       </c>
       <c r="S5" t="n">
-        <v>1877.362651395473</v>
+        <v>340.5399146369027</v>
       </c>
       <c r="T5" t="n">
-        <v>182.1736442729533</v>
+        <v>1272.221914334053</v>
       </c>
       <c r="U5" t="n">
-        <v>660.037866780442</v>
+        <v>60.84629277446754</v>
       </c>
       <c r="V5" t="n">
-        <v>32.55057025042441</v>
+        <v>4874.268350485898</v>
       </c>
       <c r="W5" t="n">
-        <v>2537.400518175914</v>
+        <v>401.3837502080142</v>
       </c>
       <c r="X5" t="n">
-        <v>214.7242145233777</v>
+        <v>562.0485617002339</v>
       </c>
       <c r="Y5" t="n">
-        <v>319.9089101047509</v>
+        <v>34.64477414520304</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.86873317390599</v>
+        <v>378.2668788937941</v>
       </c>
       <c r="AA5" t="n">
-        <v>221.1368533216954</v>
+        <v>57.47185573785257</v>
       </c>
       <c r="AB5" t="n">
-        <v>33.78596920457558</v>
+        <v>55946.69534922051</v>
       </c>
       <c r="AC5" t="n">
-        <v>33155.11800774048</v>
+        <v>1864.888965919137</v>
       </c>
       <c r="AD5" t="n">
-        <v>1864.888965919137</v>
+        <v>10540.59122719754</v>
       </c>
       <c r="AE5" t="n">
-        <v>5974.368928778877</v>
+        <v>4202.733394104206</v>
       </c>
       <c r="AF5" t="n">
-        <v>2242.694530973132</v>
+        <v>375.9536221726275</v>
       </c>
       <c r="AG5" t="n">
-        <v>208.6979608792499</v>
+        <v>1169.414398517151</v>
       </c>
       <c r="AH5" t="n">
-        <v>577.8400235028059</v>
+        <v>55.20272619800229</v>
       </c>
       <c r="AI5" t="n">
-        <v>30.67968998425092</v>
+        <v>5372.148370863799</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2820.534554475938</v>
+        <v>431.1508714903594</v>
       </c>
       <c r="AK5" t="n">
-        <v>239.3776508635009</v>
+        <v>605.5315340012413</v>
       </c>
       <c r="AL5" t="n">
-        <v>361.0765362504482</v>
+        <v>33.21209209286223</v>
       </c>
       <c r="AM5" t="n">
-        <v>19.09918424255068</v>
+        <v>425.6585027504634</v>
       </c>
       <c r="AN5" t="n">
-        <v>258.7549468305291</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>40.08382582077697</v>
+        <v>69.20668924633893</v>
       </c>
     </row>
     <row r="6">
@@ -1184,85 +1167,82 @@
         <v>153.8928976154796</v>
       </c>
       <c r="O6" t="n">
-        <v>373.2504336337115</v>
+        <v>54652.30731727424</v>
       </c>
       <c r="P6" t="n">
-        <v>31926.41637150356</v>
+        <v>1821.73796604461</v>
       </c>
       <c r="Q6" t="n">
-        <v>1821.73796604461</v>
+        <v>9205.212126533897</v>
       </c>
       <c r="R6" t="n">
-        <v>5141.676267777947</v>
+        <v>3901.770825042987</v>
       </c>
       <c r="S6" t="n">
-        <v>2080.192183482512</v>
+        <v>366.5877059062342</v>
       </c>
       <c r="T6" t="n">
-        <v>200.2151328079199</v>
+        <v>1454.798968797358</v>
       </c>
       <c r="U6" t="n">
-        <v>764.2041045945782</v>
+        <v>71.25946587323465</v>
       </c>
       <c r="V6" t="n">
-        <v>37.85555274732847</v>
+        <v>5356.568678681916</v>
       </c>
       <c r="W6" t="n">
-        <v>2844.396288077091</v>
+        <v>437.851525020404</v>
       </c>
       <c r="X6" t="n">
-        <v>238.0706855552484</v>
+        <v>555.3601288305475</v>
       </c>
       <c r="Y6" t="n">
-        <v>318.3685568316117</v>
+        <v>37.59077906796561</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.8662306728472</v>
+        <v>376.2440396421179</v>
       </c>
       <c r="AA6" t="n">
-        <v>218.2563540987393</v>
+        <v>66.96415368147353</v>
       </c>
       <c r="AB6" t="n">
-        <v>36.36257274115437</v>
+        <v>57863.07030343397</v>
       </c>
       <c r="AC6" t="n">
-        <v>36289.82319771197</v>
+        <v>1928.773099241082</v>
       </c>
       <c r="AD6" t="n">
-        <v>1928.773099241082</v>
+        <v>10754.84467556659</v>
       </c>
       <c r="AE6" t="n">
-        <v>6636.375461973943</v>
+        <v>4140.258790435688</v>
       </c>
       <c r="AF6" t="n">
-        <v>2471.425898850328</v>
+        <v>402.0384989038774</v>
       </c>
       <c r="AG6" t="n">
-        <v>240.038702546513</v>
+        <v>1237.738476397632</v>
       </c>
       <c r="AH6" t="n">
-        <v>703.3248211157251</v>
+        <v>61.69593322061863</v>
       </c>
       <c r="AI6" t="n">
-        <v>35.91310232818523</v>
+        <v>5377.990811962127</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3174.750719966053</v>
+        <v>463.7305578672558</v>
       </c>
       <c r="AK6" t="n">
-        <v>275.9518048746982</v>
+        <v>635.1597252297018</v>
       </c>
       <c r="AL6" t="n">
-        <v>400.8982756416299</v>
+        <v>34.97743475583152</v>
       </c>
       <c r="AM6" t="n">
-        <v>20.65989236782318</v>
+        <v>455.5604640087323</v>
       </c>
       <c r="AN6" t="n">
-        <v>287.2834330062374</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>50.46464242651246</v>
+        <v>83.78850268146699</v>
       </c>
     </row>
     <row r="7">
@@ -1309,85 +1289,82 @@
         <v>148.3861834957069</v>
       </c>
       <c r="O7" t="n">
-        <v>368.7707686488805</v>
+        <v>54174.67802301759</v>
       </c>
       <c r="P7" t="n">
-        <v>32964.70728906648</v>
+        <v>1805.825361626136</v>
       </c>
       <c r="Q7" t="n">
-        <v>1805.825361626136</v>
+        <v>8973.449604567195</v>
       </c>
       <c r="R7" t="n">
-        <v>5099.236627370526</v>
+        <v>3712.273986949986</v>
       </c>
       <c r="S7" t="n">
-        <v>2039.986172602952</v>
+        <v>344.0139743419758</v>
       </c>
       <c r="T7" t="n">
-        <v>191.2374249079482</v>
+        <v>1361.550789384918</v>
       </c>
       <c r="U7" t="n">
-        <v>740.4521867663719</v>
+        <v>68.75384908895003</v>
       </c>
       <c r="V7" t="n">
-        <v>37.26741388001947</v>
+        <v>5073.828627683041</v>
       </c>
       <c r="W7" t="n">
-        <v>2780.438359369324</v>
+        <v>412.7691454650912</v>
       </c>
       <c r="X7" t="n">
-        <v>228.5048387879676</v>
+        <v>536.9094006322558</v>
       </c>
       <c r="Y7" t="n">
-        <v>318.290497194702</v>
+        <v>33.0406642032569</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.52112968964483</v>
+        <v>365.1001265322959</v>
       </c>
       <c r="AA7" t="n">
-        <v>222.0036448740176</v>
+        <v>62.03637201567053</v>
       </c>
       <c r="AB7" t="n">
-        <v>34.57334140263995</v>
+        <v>56823.90073784392</v>
       </c>
       <c r="AC7" t="n">
-        <v>36624.04804914458</v>
+        <v>1894.125183903966</v>
       </c>
       <c r="AD7" t="n">
-        <v>1894.125183903966</v>
+        <v>10747.63884087193</v>
       </c>
       <c r="AE7" t="n">
-        <v>6763.834242476616</v>
+        <v>4170.933775592645</v>
       </c>
       <c r="AF7" t="n">
-        <v>2566.739853435421</v>
+        <v>387.1687825870855</v>
       </c>
       <c r="AG7" t="n">
-        <v>242.9019797918331</v>
+        <v>1115.580052912375</v>
       </c>
       <c r="AH7" t="n">
-        <v>702.841668041063</v>
+        <v>58.92656961252821</v>
       </c>
       <c r="AI7" t="n">
-        <v>37.94397902807829</v>
+        <v>5286.506881538875</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3269.581521476483</v>
+        <v>446.1002835742905</v>
       </c>
       <c r="AK7" t="n">
-        <v>280.8459588199113</v>
+        <v>601.3840721194969</v>
       </c>
       <c r="AL7" t="n">
-        <v>394.0076280497173</v>
+        <v>31.83820764979849</v>
       </c>
       <c r="AM7" t="n">
-        <v>20.17669485819976</v>
+        <v>426.9239607775038</v>
       </c>
       <c r="AN7" t="n">
-        <v>284.4171256806977</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>51.83882338319464</v>
+        <v>81.0930088521572</v>
       </c>
     </row>
     <row r="8">
@@ -1434,85 +1411,82 @@
         <v>153.8983618608194</v>
       </c>
       <c r="O8" t="n">
-        <v>379.7152822700402</v>
+        <v>55061.19341462246</v>
       </c>
       <c r="P8" t="n">
-        <v>31913.50136604077</v>
+        <v>1835.375918812329</v>
       </c>
       <c r="Q8" t="n">
-        <v>1835.375918812329</v>
+        <v>9224.997549041898</v>
       </c>
       <c r="R8" t="n">
-        <v>5147.393734679919</v>
+        <v>3976.275247926351</v>
       </c>
       <c r="S8" t="n">
-        <v>2118.857315974199</v>
+        <v>370.4119838511151</v>
       </c>
       <c r="T8" t="n">
-        <v>198.8067695227947</v>
+        <v>1464.5645773328</v>
       </c>
       <c r="U8" t="n">
-        <v>731.8263090198232</v>
+        <v>71.05249083435737</v>
       </c>
       <c r="V8" t="n">
-        <v>37.36535590858409</v>
+        <v>5440.839261079357</v>
       </c>
       <c r="W8" t="n">
-        <v>2850.683624994022</v>
+        <v>441.4582909829305</v>
       </c>
       <c r="X8" t="n">
-        <v>236.1721254313788</v>
+        <v>579.1003455939318</v>
       </c>
       <c r="Y8" t="n">
-        <v>331.5264958415159</v>
+        <v>37.14102089001048</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.70829113849296</v>
+        <v>387.9548815571273</v>
       </c>
       <c r="AA8" t="n">
-        <v>225.713965103116</v>
+        <v>63.52654211461503</v>
       </c>
       <c r="AB8" t="n">
-        <v>35.40354463024069</v>
+        <v>58333.28024418056</v>
       </c>
       <c r="AC8" t="n">
-        <v>35750.9874961997</v>
+        <v>1944.443695527752</v>
       </c>
       <c r="AD8" t="n">
-        <v>1944.443695527752</v>
+        <v>11168.23396062677</v>
       </c>
       <c r="AE8" t="n">
-        <v>6718.903439401184</v>
+        <v>4428.780509793479</v>
       </c>
       <c r="AF8" t="n">
-        <v>2620.49195248869</v>
+        <v>409.9760937992039</v>
       </c>
       <c r="AG8" t="n">
-        <v>245.2553044829401</v>
+        <v>1269.784964333521</v>
       </c>
       <c r="AH8" t="n">
-        <v>759.5251029630953</v>
+        <v>65.14551640652103</v>
       </c>
       <c r="AI8" t="n">
-        <v>38.53776524124087</v>
+        <v>5698.565639117728</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3380.017055451785</v>
+        <v>475.1241094870433</v>
       </c>
       <c r="AK8" t="n">
-        <v>283.793069724181</v>
+        <v>621.1803421076563</v>
       </c>
       <c r="AL8" t="n">
-        <v>387.4125788073441</v>
+        <v>31.59011608701283</v>
       </c>
       <c r="AM8" t="n">
-        <v>19.73082046832206</v>
+        <v>450.1710907434393</v>
       </c>
       <c r="AN8" t="n">
-        <v>282.3875615143584</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>45.9408832881966</v>
+        <v>76.64467103152943</v>
       </c>
     </row>
     <row r="9">
@@ -1559,85 +1533,82 @@
         <v>150.9774652769318</v>
       </c>
       <c r="O9" t="n">
-        <v>377.0137864082087</v>
+        <v>55012.48671832336</v>
       </c>
       <c r="P9" t="n">
-        <v>32493.9032268511</v>
+        <v>1833.750447773107</v>
       </c>
       <c r="Q9" t="n">
-        <v>1833.750447773107</v>
+        <v>9328.947364361966</v>
       </c>
       <c r="R9" t="n">
-        <v>5229.5789414933</v>
+        <v>3905.006200775118</v>
       </c>
       <c r="S9" t="n">
-        <v>2142.648095325087</v>
+        <v>360.324814984533</v>
       </c>
       <c r="T9" t="n">
-        <v>199.3352619796001</v>
+        <v>1362.994691960037</v>
       </c>
       <c r="U9" t="n">
-        <v>729.8745706043828</v>
+        <v>67.68301316467566</v>
       </c>
       <c r="V9" t="n">
-        <v>36.51160845981403</v>
+        <v>5267.993902818239</v>
       </c>
       <c r="W9" t="n">
-        <v>2872.52266592947</v>
+        <v>428.004733736262</v>
       </c>
       <c r="X9" t="n">
-        <v>235.8468704394141</v>
+        <v>560.0468607560283</v>
       </c>
       <c r="Y9" t="n">
-        <v>324.8985377650313</v>
+        <v>35.72507495904972</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.94894708503432</v>
+        <v>376.4113989686351</v>
       </c>
       <c r="AA9" t="n">
-        <v>224.6408481977447</v>
+        <v>64.86620582989485</v>
       </c>
       <c r="AB9" t="n">
-        <v>35.91426409045922</v>
+        <v>57742.85746919164</v>
       </c>
       <c r="AC9" t="n">
-        <v>36210.26095933967</v>
+        <v>1924.764742115424</v>
       </c>
       <c r="AD9" t="n">
-        <v>1924.764742115424</v>
+        <v>10773.2505150077</v>
       </c>
       <c r="AE9" t="n">
-        <v>6576.786293862968</v>
+        <v>4306.878973475196</v>
       </c>
       <c r="AF9" t="n">
-        <v>2559.025724378408</v>
+        <v>390.2523754927018</v>
       </c>
       <c r="AG9" t="n">
-        <v>239.0200356605555</v>
+        <v>1155.933819180082</v>
       </c>
       <c r="AH9" t="n">
-        <v>700.9652273332588</v>
+        <v>58.58699560854434</v>
       </c>
       <c r="AI9" t="n">
-        <v>36.71415308517826</v>
+        <v>5462.815311742091</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3259.990951711667</v>
+        <v>448.8512763901625</v>
       </c>
       <c r="AK9" t="n">
-        <v>275.7341887457338</v>
+        <v>623.8600885696316</v>
       </c>
       <c r="AL9" t="n">
-        <v>398.8987240038352</v>
+        <v>37.35685910053038</v>
       </c>
       <c r="AM9" t="n">
-        <v>21.83357229802373</v>
+        <v>440.7140301226192</v>
       </c>
       <c r="AN9" t="n">
-        <v>288.6339918380146</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>48.85233662228176</v>
+        <v>80.98881086730458</v>
       </c>
     </row>
     <row r="10">
@@ -1684,85 +1655,82 @@
         <v>157.2525245129208</v>
       </c>
       <c r="O10" t="n">
-        <v>377.3039471115405</v>
+        <v>56295.63244313971</v>
       </c>
       <c r="P10" t="n">
-        <v>32833.53121722902</v>
+        <v>1876.512709620279</v>
       </c>
       <c r="Q10" t="n">
-        <v>1876.512709620279</v>
+        <v>9587.255176866731</v>
       </c>
       <c r="R10" t="n">
-        <v>5392.401371572456</v>
+        <v>3897.505312559646</v>
       </c>
       <c r="S10" t="n">
-        <v>2071.686710235712</v>
+        <v>365.9887506961779</v>
       </c>
       <c r="T10" t="n">
-        <v>197.9370288569783</v>
+        <v>1375.743835463402</v>
       </c>
       <c r="U10" t="n">
-        <v>697.1748975230333</v>
+        <v>64.69088582679485</v>
       </c>
       <c r="V10" t="n">
-        <v>35.1574210718661</v>
+        <v>5273.248415884123</v>
       </c>
       <c r="W10" t="n">
-        <v>2768.861607758745</v>
+        <v>430.6820234612495</v>
       </c>
       <c r="X10" t="n">
-        <v>233.0944499288444</v>
+        <v>591.2157097404433</v>
       </c>
       <c r="Y10" t="n">
-        <v>340.9733357525052</v>
+        <v>38.1779752477979</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.06103407607105</v>
+        <v>413.2325778728361</v>
       </c>
       <c r="AA10" t="n">
-        <v>243.2925875949659</v>
+        <v>67.36709995022404</v>
       </c>
       <c r="AB10" t="n">
-        <v>37.69736685385381</v>
+        <v>59251.94596014867</v>
       </c>
       <c r="AC10" t="n">
-        <v>36255.13632128506</v>
+        <v>1975.061122999424</v>
       </c>
       <c r="AD10" t="n">
-        <v>1975.061122999424</v>
+        <v>11310.33341238846</v>
       </c>
       <c r="AE10" t="n">
-        <v>6817.046206375205</v>
+        <v>4541.484471563754</v>
       </c>
       <c r="AF10" t="n">
-        <v>2709.143444830062</v>
+        <v>422.941035612985</v>
       </c>
       <c r="AG10" t="n">
-        <v>251.3479016036124</v>
+        <v>1268.523444595597</v>
       </c>
       <c r="AH10" t="n">
-        <v>745.6059337390486</v>
+        <v>62.06038402751018</v>
       </c>
       <c r="AI10" t="n">
-        <v>38.28696798668566</v>
+        <v>5810.004726886244</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3454.74937856911</v>
+        <v>484.9974941078569</v>
       </c>
       <c r="AK10" t="n">
-        <v>289.634869590298</v>
+        <v>648.5524562157086</v>
       </c>
       <c r="AL10" t="n">
-        <v>405.1517731447101</v>
+        <v>37.78364165808689</v>
       </c>
       <c r="AM10" t="n">
-        <v>21.35115469073327</v>
+        <v>466.1762629230229</v>
       </c>
       <c r="AN10" t="n">
-        <v>295.4338060115413</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>50.07666446267294</v>
+        <v>83.76511860856729</v>
       </c>
     </row>
     <row r="11">
@@ -1809,85 +1777,82 @@
         <v>146.3504450793865</v>
       </c>
       <c r="O11" t="n">
-        <v>362.9814722291634</v>
+        <v>50991.34261708237</v>
       </c>
       <c r="P11" t="n">
-        <v>33185.12849439531</v>
+        <v>1699.712088883269</v>
       </c>
       <c r="Q11" t="n">
-        <v>1699.712088883269</v>
+        <v>8203.899800482181</v>
       </c>
       <c r="R11" t="n">
-        <v>5154.072126752309</v>
+        <v>3441.413719405817</v>
       </c>
       <c r="S11" t="n">
-        <v>1994.200782781863</v>
+        <v>320.6901233412387</v>
       </c>
       <c r="T11" t="n">
-        <v>188.3067406666306</v>
+        <v>1197.789187768662</v>
       </c>
       <c r="U11" t="n">
-        <v>665.5419842450589</v>
+        <v>56.42754059090294</v>
       </c>
       <c r="V11" t="n">
-        <v>32.31482646892147</v>
+        <v>4639.204851399598</v>
       </c>
       <c r="W11" t="n">
-        <v>2659.742767026922</v>
+        <v>377.1123632062323</v>
       </c>
       <c r="X11" t="n">
-        <v>220.6215671355521</v>
+        <v>526.4030693866165</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.3263837511312</v>
+        <v>30.0081980850787</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.38142654107074</v>
+        <v>355.0183188807806</v>
       </c>
       <c r="AA11" t="n">
-        <v>235.5160413528113</v>
+        <v>58.72677065075794</v>
       </c>
       <c r="AB11" t="n">
-        <v>36.29745845986584</v>
+        <v>55810.82089674828</v>
       </c>
       <c r="AC11" t="n">
-        <v>37280.1881186349</v>
+        <v>1860.359746309278</v>
       </c>
       <c r="AD11" t="n">
-        <v>1860.359746309278</v>
+        <v>10484.97420309216</v>
       </c>
       <c r="AE11" t="n">
-        <v>6706.015680997292</v>
+        <v>3801.625355673165</v>
       </c>
       <c r="AF11" t="n">
-        <v>2384.258498844717</v>
+        <v>357.544582210929</v>
       </c>
       <c r="AG11" t="n">
-        <v>224.5827799349538</v>
+        <v>1070.59793603558</v>
       </c>
       <c r="AH11" t="n">
-        <v>634.0501500327925</v>
+        <v>51.66627538041434</v>
       </c>
       <c r="AI11" t="n">
-        <v>31.82361448762138</v>
+        <v>4872.226648393438</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3018.308648877509</v>
+        <v>409.2078415652711</v>
       </c>
       <c r="AK11" t="n">
-        <v>256.4063944225752</v>
+        <v>592.2168301431981</v>
       </c>
       <c r="AL11" t="n">
-        <v>409.3621979468193</v>
+        <v>33.05932449765679</v>
       </c>
       <c r="AM11" t="n">
-        <v>19.90593982283949</v>
+        <v>434.819589869882</v>
       </c>
       <c r="AN11" t="n">
-        <v>304.2931891972036</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>50.13112803254241</v>
+        <v>79.94441031333244</v>
       </c>
     </row>
     <row r="12">
@@ -1934,85 +1899,82 @@
         <v>153.4789544003617</v>
       </c>
       <c r="O12" t="n">
-        <v>360.3548298167383</v>
+        <v>51616.49435967088</v>
       </c>
       <c r="P12" t="n">
-        <v>32683.33332096153</v>
+        <v>1720.550992693523</v>
       </c>
       <c r="Q12" t="n">
-        <v>1720.550992693523</v>
+        <v>8554.231187830965</v>
       </c>
       <c r="R12" t="n">
-        <v>5102.268404958772</v>
+        <v>3414.122772956346</v>
       </c>
       <c r="S12" t="n">
-        <v>2007.04045705686</v>
+        <v>330.7151729234342</v>
       </c>
       <c r="T12" t="n">
-        <v>194.733795032851</v>
+        <v>1222.39464233785</v>
       </c>
       <c r="U12" t="n">
-        <v>664.4186171570296</v>
+        <v>58.74131793774225</v>
       </c>
       <c r="V12" t="n">
-        <v>34.3711605774973</v>
+        <v>4636.51497680431</v>
       </c>
       <c r="W12" t="n">
-        <v>2671.459074213889</v>
+        <v>389.4576948947126</v>
       </c>
       <c r="X12" t="n">
-        <v>229.1049556103484</v>
+        <v>545.202345359232</v>
       </c>
       <c r="Y12" t="n">
-        <v>339.499822504873</v>
+        <v>33.90364589310777</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.41860002022354</v>
+        <v>369.0066553626888</v>
       </c>
       <c r="AA12" t="n">
-        <v>239.0241150714338</v>
+        <v>65.67686797888952</v>
       </c>
       <c r="AB12" t="n">
-        <v>38.13825321005091</v>
+        <v>55326.74540683321</v>
       </c>
       <c r="AC12" t="n">
-        <v>38315.25235408925</v>
+        <v>1844.221740296441</v>
       </c>
       <c r="AD12" t="n">
-        <v>1844.221740296441</v>
+        <v>10450.65297656297</v>
       </c>
       <c r="AE12" t="n">
-        <v>6958.583104019882</v>
+        <v>3829.417967925446</v>
       </c>
       <c r="AF12" t="n">
-        <v>2526.755584712785</v>
+        <v>364.9001983878601</v>
       </c>
       <c r="AG12" t="n">
-        <v>241.8655769622297</v>
+        <v>1054.409789273303</v>
       </c>
       <c r="AH12" t="n">
-        <v>690.581504754931</v>
+        <v>49.26327424924349</v>
       </c>
       <c r="AI12" t="n">
-        <v>33.78811845636204</v>
+        <v>4883.831510658608</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3217.337089467715</v>
+        <v>414.1640226272152</v>
       </c>
       <c r="AK12" t="n">
-        <v>275.6536954185917</v>
+        <v>621.1693915648368</v>
       </c>
       <c r="AL12" t="n">
-        <v>434.8746731499489</v>
+        <v>29.76631985160757</v>
       </c>
       <c r="AM12" t="n">
-        <v>20.21091432225371</v>
+        <v>449.3199763933981</v>
       </c>
       <c r="AN12" t="n">
-        <v>318.3033138304034</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>52.69788453068735</v>
+        <v>80.47062830556595</v>
       </c>
     </row>
     <row r="13">
@@ -2059,85 +2021,82 @@
         <v>152.8382494542292</v>
       </c>
       <c r="O13" t="n">
-        <v>345.2266849054834</v>
+        <v>51121.75827271496</v>
       </c>
       <c r="P13" t="n">
-        <v>33335.37381718013</v>
+        <v>1704.060340115967</v>
       </c>
       <c r="Q13" t="n">
-        <v>1704.060340115967</v>
+        <v>8612.969739384724</v>
       </c>
       <c r="R13" t="n">
-        <v>5397.282031202173</v>
+        <v>3390.575753284716</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.337752517095</v>
+        <v>318.3635270909629</v>
       </c>
       <c r="T13" t="n">
-        <v>192.0937552330739</v>
+        <v>1075.16039777239</v>
       </c>
       <c r="U13" t="n">
-        <v>605.8216756978179</v>
+        <v>58.56409693062695</v>
       </c>
       <c r="V13" t="n">
-        <v>33.5499861238895</v>
+        <v>4465.741848295674</v>
       </c>
       <c r="W13" t="n">
-        <v>2623.159428214912</v>
+        <v>376.929895696437</v>
       </c>
       <c r="X13" t="n">
-        <v>225.6437413569634</v>
+        <v>536.3325093155869</v>
       </c>
       <c r="Y13" t="n">
-        <v>343.7549552613889</v>
+        <v>33.50049901455947</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.96946236970069</v>
+        <v>365.3684282795385</v>
       </c>
       <c r="AA13" t="n">
-        <v>243.9514323204349</v>
+        <v>64.67449730793876</v>
       </c>
       <c r="AB13" t="n">
-        <v>39.20666459750692</v>
+        <v>55177.38999194941</v>
       </c>
       <c r="AC13" t="n">
-        <v>35932.63273411277</v>
+        <v>1839.248312898479</v>
       </c>
       <c r="AD13" t="n">
-        <v>1839.248312898479</v>
+        <v>10300.24336235367</v>
       </c>
       <c r="AE13" t="n">
-        <v>6620.939853288101</v>
+        <v>3884.279094930213</v>
       </c>
       <c r="AF13" t="n">
-        <v>2464.736406825781</v>
+        <v>363.222851407474</v>
       </c>
       <c r="AG13" t="n">
-        <v>231.3793300266081</v>
+        <v>1051.858378931774</v>
       </c>
       <c r="AH13" t="n">
-        <v>649.9120073835061</v>
+        <v>53.18098598200657</v>
       </c>
       <c r="AI13" t="n">
-        <v>34.59744358413221</v>
+        <v>4936.138398813268</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3114.648414209287</v>
+        <v>416.4096013414105</v>
       </c>
       <c r="AK13" t="n">
-        <v>265.9767736107403</v>
+        <v>616.451265900452</v>
       </c>
       <c r="AL13" t="n">
-        <v>402.3081370883053</v>
+        <v>34.62037949642306</v>
       </c>
       <c r="AM13" t="n">
-        <v>20.91779703019348</v>
+        <v>447.8468851897887</v>
       </c>
       <c r="AN13" t="n">
-        <v>299.2243148973246</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>50.44301318874111</v>
+        <v>79.81929272125554</v>
       </c>
     </row>
     <row r="14">
@@ -2184,85 +2143,82 @@
         <v>154.9748653574812</v>
       </c>
       <c r="O14" t="n">
-        <v>378.4639997171462</v>
+        <v>56344.82536308074</v>
       </c>
       <c r="P14" t="n">
-        <v>34268.33957280997</v>
+        <v>1878.15667361092</v>
       </c>
       <c r="Q14" t="n">
-        <v>1878.15667361092</v>
+        <v>9601.089279624925</v>
       </c>
       <c r="R14" t="n">
-        <v>5477.501670688562</v>
+        <v>4156.254742890906</v>
       </c>
       <c r="S14" t="n">
-        <v>2238.50713878413</v>
+        <v>382.9508338822366</v>
       </c>
       <c r="T14" t="n">
-        <v>209.9282760153698</v>
+        <v>1431.652969557875</v>
       </c>
       <c r="U14" t="n">
-        <v>757.9568681700646</v>
+        <v>69.7300532229398</v>
       </c>
       <c r="V14" t="n">
-        <v>39.8019938354856</v>
+        <v>5587.912100730463</v>
       </c>
       <c r="W14" t="n">
-        <v>2996.464006954195</v>
+        <v>452.6823544730199</v>
       </c>
       <c r="X14" t="n">
-        <v>249.7302698508554</v>
+        <v>572.3731979385467</v>
       </c>
       <c r="Y14" t="n">
-        <v>345.9235861909279</v>
+        <v>32.09163382610829</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.92475670069412</v>
+        <v>393.3213920249319</v>
       </c>
       <c r="AA14" t="n">
-        <v>243.6304819622941</v>
+        <v>63.13357670125338</v>
       </c>
       <c r="AB14" t="n">
-        <v>36.82341901775614</v>
+        <v>59820.95707346766</v>
       </c>
       <c r="AC14" t="n">
-        <v>38518.0455952227</v>
+        <v>1994.031361090379</v>
       </c>
       <c r="AD14" t="n">
-        <v>1994.031361090379</v>
+        <v>11716.25378030258</v>
       </c>
       <c r="AE14" t="n">
-        <v>7225.834157734454</v>
+        <v>4464.268185687839</v>
       </c>
       <c r="AF14" t="n">
-        <v>2690.67149373348</v>
+        <v>410.5538717209658</v>
       </c>
       <c r="AG14" t="n">
-        <v>250.4499178521737</v>
+        <v>1144.700027458609</v>
       </c>
       <c r="AH14" t="n">
-        <v>662.6423557234028</v>
+        <v>57.49779161042814</v>
       </c>
       <c r="AI14" t="n">
-        <v>34.48575999452919</v>
+        <v>5608.967574197019</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3353.313849456883</v>
+        <v>468.0509686993709</v>
       </c>
       <c r="AK14" t="n">
-        <v>284.9356778467028</v>
+        <v>626.6401254691956</v>
       </c>
       <c r="AL14" t="n">
-        <v>417.966862847718</v>
+        <v>32.22283802235778</v>
       </c>
       <c r="AM14" t="n">
-        <v>20.64951576648975</v>
+        <v>461.20022101646</v>
       </c>
       <c r="AN14" t="n">
-        <v>306.8341542753252</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>51.66398833565297</v>
+        <v>79.91745079575341</v>
       </c>
     </row>
     <row r="15">
@@ -2309,85 +2265,82 @@
         <v>155.1932800150276</v>
       </c>
       <c r="O15" t="n">
-        <v>360.0413104196099</v>
+        <v>54161.96646196798</v>
       </c>
       <c r="P15" t="n">
-        <v>33078.40345911351</v>
+        <v>1805.401767991261</v>
       </c>
       <c r="Q15" t="n">
-        <v>1805.401767991261</v>
+        <v>9180.891767294192</v>
       </c>
       <c r="R15" t="n">
-        <v>5231.576969647657</v>
+        <v>3866.488663021625</v>
       </c>
       <c r="S15" t="n">
-        <v>2153.018100652808</v>
+        <v>355.4497525173455</v>
       </c>
       <c r="T15" t="n">
-        <v>203.3257370189164</v>
+        <v>1323.004300265804</v>
       </c>
       <c r="U15" t="n">
-        <v>710.9430498562294</v>
+        <v>69.49734733185895</v>
       </c>
       <c r="V15" t="n">
-        <v>38.30309498172497</v>
+        <v>5189.499789367325</v>
       </c>
       <c r="W15" t="n">
-        <v>2863.961150509037</v>
+        <v>424.9409496771697</v>
       </c>
       <c r="X15" t="n">
-        <v>241.6288320006414</v>
+        <v>566.5109057391447</v>
       </c>
       <c r="Y15" t="n">
-        <v>339.7581249556965</v>
+        <v>35.39663362153762</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.55452241567974</v>
+        <v>385.2088564453472</v>
       </c>
       <c r="AA15" t="n">
-        <v>237.5879560043003</v>
+        <v>62.00503861563305</v>
       </c>
       <c r="AB15" t="n">
-        <v>36.06091619711198</v>
+        <v>58525.98803382103</v>
       </c>
       <c r="AC15" t="n">
-        <v>37022.45057754588</v>
+        <v>1950.867467643555</v>
       </c>
       <c r="AD15" t="n">
-        <v>1950.867467643555</v>
+        <v>11503.70341071949</v>
       </c>
       <c r="AE15" t="n">
-        <v>6997.624406888284</v>
+        <v>4572.405272477741</v>
       </c>
       <c r="AF15" t="n">
-        <v>2644.89217878563</v>
+        <v>401.4091702449805</v>
       </c>
       <c r="AG15" t="n">
-        <v>244.2210686291001</v>
+        <v>1191.547716918848</v>
       </c>
       <c r="AH15" t="n">
-        <v>705.1997587689906</v>
+        <v>58.6741406178984</v>
       </c>
       <c r="AI15" t="n">
-        <v>37.14878850249384</v>
+        <v>5763.950529914652</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3350.091937554621</v>
+        <v>460.0771583844409</v>
       </c>
       <c r="AK15" t="n">
-        <v>281.3698571315939</v>
+        <v>640.0942876094334</v>
       </c>
       <c r="AL15" t="n">
-        <v>404.9093830869319</v>
+        <v>31.27643600821118</v>
       </c>
       <c r="AM15" t="n">
-        <v>19.23432124249654</v>
+        <v>451.0536395289589</v>
       </c>
       <c r="AN15" t="n">
-        <v>291.5989732357521</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>50.6747110240701</v>
+        <v>83.68733423171174</v>
       </c>
     </row>
     <row r="16">
@@ -2434,85 +2387,82 @@
         <v>159.3235686169123</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2065644799182</v>
+        <v>52454.21301483746</v>
       </c>
       <c r="P16" t="n">
-        <v>32807.63682533221</v>
+        <v>1748.474094647594</v>
       </c>
       <c r="Q16" t="n">
-        <v>1748.474094647594</v>
+        <v>8705.598899340075</v>
       </c>
       <c r="R16" t="n">
-        <v>5141.635013871204</v>
+        <v>3620.542495667778</v>
       </c>
       <c r="S16" t="n">
-        <v>2026.846607582607</v>
+        <v>335.7406415877155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.7879806114885</v>
+        <v>1248.575290758953</v>
       </c>
       <c r="U16" t="n">
-        <v>675.4289314346598</v>
+        <v>62.31603440652827</v>
       </c>
       <c r="V16" t="n">
-        <v>35.13253931717475</v>
+        <v>4869.119310789816</v>
       </c>
       <c r="W16" t="n">
-        <v>2702.275539017267</v>
+        <v>398.0547814076913</v>
       </c>
       <c r="X16" t="n">
-        <v>227.9205199286633</v>
+        <v>544.6996519682557</v>
       </c>
       <c r="Y16" t="n">
-        <v>341.8985935505538</v>
+        <v>31.42175719456437</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.72228407082885</v>
+        <v>371.2376887462247</v>
       </c>
       <c r="AA16" t="n">
-        <v>240.0306771601753</v>
+        <v>65.62347629213488</v>
       </c>
       <c r="AB16" t="n">
-        <v>37.96547001113531</v>
+        <v>56275.75419147564</v>
       </c>
       <c r="AC16" t="n">
-        <v>38674.49027931293</v>
+        <v>1875.859468776664</v>
       </c>
       <c r="AD16" t="n">
-        <v>1875.859468776664</v>
+        <v>10985.34222767612</v>
       </c>
       <c r="AE16" t="n">
-        <v>7279.981999222692</v>
+        <v>4087.953706317435</v>
       </c>
       <c r="AF16" t="n">
-        <v>2631.627730923736</v>
+        <v>387.4571418035284</v>
       </c>
       <c r="AG16" t="n">
-        <v>252.5306517711122</v>
+        <v>1179.400079584131</v>
       </c>
       <c r="AH16" t="n">
-        <v>702.4290643543746</v>
+        <v>57.58363471299979</v>
       </c>
       <c r="AI16" t="n">
-        <v>36.83496888400582</v>
+        <v>5267.34992498571</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3334.056795278111</v>
+        <v>445.0356000923778</v>
       </c>
       <c r="AK16" t="n">
-        <v>289.365620655118</v>
+        <v>623.1865000806898</v>
       </c>
       <c r="AL16" t="n">
-        <v>435.9876823209549</v>
+        <v>29.93550739948164</v>
       </c>
       <c r="AM16" t="n">
-        <v>20.71872879710061</v>
+        <v>457.4170204584465</v>
       </c>
       <c r="AN16" t="n">
-        <v>327.3408143279991</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>55.310346729996</v>
+        <v>79.59234091612156</v>
       </c>
     </row>
     <row r="17">
@@ -2559,85 +2509,82 @@
         <v>153.8306452405952</v>
       </c>
       <c r="O17" t="n">
-        <v>364.5880268091531</v>
+        <v>55740.50927612356</v>
       </c>
       <c r="P17" t="n">
-        <v>34103.85824955234</v>
+        <v>1858.019647003561</v>
       </c>
       <c r="Q17" t="n">
-        <v>1858.019647003561</v>
+        <v>9555.609738449552</v>
       </c>
       <c r="R17" t="n">
-        <v>5410.4703800737</v>
+        <v>4025.346448765646</v>
       </c>
       <c r="S17" t="n">
-        <v>2170.113069214917</v>
+        <v>369.1706322619258</v>
       </c>
       <c r="T17" t="n">
-        <v>201.3887826163122</v>
+        <v>1337.482767016518</v>
       </c>
       <c r="U17" t="n">
-        <v>683.2885275990272</v>
+        <v>67.80840690837167</v>
       </c>
       <c r="V17" t="n">
-        <v>36.41459231112596</v>
+        <v>5362.827247810458</v>
       </c>
       <c r="W17" t="n">
-        <v>2853.401596813944</v>
+        <v>436.9764129616229</v>
       </c>
       <c r="X17" t="n">
-        <v>237.8033749274381</v>
+        <v>572.9071483643831</v>
       </c>
       <c r="Y17" t="n">
-        <v>347.1798672635665</v>
+        <v>37.75391116540325</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.11376143460528</v>
+        <v>397.3966810575072</v>
       </c>
       <c r="AA17" t="n">
-        <v>246.3774718138498</v>
+        <v>61.41549171932594</v>
       </c>
       <c r="AB17" t="n">
-        <v>35.68905328593416</v>
+        <v>59212.71814404336</v>
       </c>
       <c r="AC17" t="n">
-        <v>38507.37105845502</v>
+        <v>1973.759164223482</v>
       </c>
       <c r="AD17" t="n">
-        <v>1973.759164223482</v>
+        <v>11813.83252925004</v>
       </c>
       <c r="AE17" t="n">
-        <v>7232.892993644045</v>
+        <v>4341.964835100171</v>
       </c>
       <c r="AF17" t="n">
-        <v>2661.166937861592</v>
+        <v>402.034712106841</v>
       </c>
       <c r="AG17" t="n">
-        <v>250.3516708623214</v>
+        <v>1090.320698904995</v>
       </c>
       <c r="AH17" t="n">
-        <v>657.9259732478607</v>
+        <v>54.38126308453914</v>
       </c>
       <c r="AI17" t="n">
-        <v>34.67232807857892</v>
+        <v>5432.290334095962</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3319.092911109452</v>
+        <v>456.41534101661</v>
       </c>
       <c r="AK17" t="n">
-        <v>285.0239989409004</v>
+        <v>617.9497319286929</v>
       </c>
       <c r="AL17" t="n">
-        <v>413.8675150208221</v>
+        <v>30.37744590394588</v>
       </c>
       <c r="AM17" t="n">
-        <v>19.96156467375875</v>
+        <v>453.0927441733276</v>
       </c>
       <c r="AN17" t="n">
-        <v>306.5078707513849</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>51.23825187662493</v>
+        <v>76.54136584341703</v>
       </c>
     </row>
     <row r="18">
@@ -2684,85 +2631,82 @@
         <v>154.7757825384787</v>
       </c>
       <c r="O18" t="n">
-        <v>354.2019221941853</v>
+        <v>52061.16195127752</v>
       </c>
       <c r="P18" t="n">
-        <v>32723.31819273204</v>
+        <v>1735.371338642288</v>
       </c>
       <c r="Q18" t="n">
-        <v>1735.371338642288</v>
+        <v>8543.917754226597</v>
       </c>
       <c r="R18" t="n">
-        <v>5266.287609282919</v>
+        <v>3765.847456790923</v>
       </c>
       <c r="S18" t="n">
-        <v>2201.851435972279</v>
+        <v>348.6684582852623</v>
       </c>
       <c r="T18" t="n">
-        <v>204.2881815894343</v>
+        <v>1429.188240569367</v>
       </c>
       <c r="U18" t="n">
-        <v>794.9210499080837</v>
+        <v>71.21946143039308</v>
       </c>
       <c r="V18" t="n">
-        <v>41.28987553316023</v>
+        <v>5195.029241985006</v>
       </c>
       <c r="W18" t="n">
-        <v>2996.772485880363</v>
+        <v>419.8918336896507</v>
       </c>
       <c r="X18" t="n">
-        <v>245.5780571225946</v>
+        <v>551.9611032718866</v>
       </c>
       <c r="Y18" t="n">
-        <v>341.4034060747244</v>
+        <v>30.22537637505324</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.45846753533974</v>
+        <v>382.1371689959062</v>
       </c>
       <c r="AA18" t="n">
-        <v>240.9603642400079</v>
+        <v>56.20132794603998</v>
       </c>
       <c r="AB18" t="n">
-        <v>33.66310966892259</v>
+        <v>55516.61184842113</v>
       </c>
       <c r="AC18" t="n">
-        <v>39945.18244533863</v>
+        <v>1850.553940627731</v>
       </c>
       <c r="AD18" t="n">
-        <v>1850.553940627731</v>
+        <v>10522.5266805198</v>
       </c>
       <c r="AE18" t="n">
-        <v>7375.991326856668</v>
+        <v>4180.758170820813</v>
       </c>
       <c r="AF18" t="n">
-        <v>2813.497503176794</v>
+        <v>389.7122688175488</v>
       </c>
       <c r="AG18" t="n">
-        <v>268.2322585865147</v>
+        <v>1109.251278472658</v>
       </c>
       <c r="AH18" t="n">
-        <v>747.8625356264783</v>
+        <v>56.99506932092955</v>
       </c>
       <c r="AI18" t="n">
-        <v>39.43065937689487</v>
+        <v>5290.013511098222</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3561.360038803272</v>
+        <v>446.7160968614692</v>
       </c>
       <c r="AK18" t="n">
-        <v>307.6629179634095</v>
+        <v>625.3439777630223</v>
       </c>
       <c r="AL18" t="n">
-        <v>448.1296032406818</v>
+        <v>33.09697317717383</v>
       </c>
       <c r="AM18" t="n">
-        <v>21.95442259770453</v>
+        <v>472.6085123946177</v>
       </c>
       <c r="AN18" t="n">
-        <v>342.9731273554407</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>53.36596226929249</v>
+        <v>77.19342407045436</v>
       </c>
     </row>
     <row r="19">
@@ -2809,85 +2753,82 @@
         <v>158.3952109055865</v>
       </c>
       <c r="O19" t="n">
-        <v>372.3539523345999</v>
+        <v>54697.47014734527</v>
       </c>
       <c r="P19" t="n">
-        <v>33628.54086678666</v>
+        <v>1823.244409553567</v>
       </c>
       <c r="Q19" t="n">
-        <v>1823.244409553567</v>
+        <v>9079.129989362935</v>
       </c>
       <c r="R19" t="n">
-        <v>5298.118163697765</v>
+        <v>3783.246789913901</v>
       </c>
       <c r="S19" t="n">
-        <v>2152.04299816889</v>
+        <v>338.9060621698503</v>
       </c>
       <c r="T19" t="n">
-        <v>199.4077730043899</v>
+        <v>1300.769810961941</v>
       </c>
       <c r="U19" t="n">
-        <v>775.5741622667304</v>
+        <v>63.33953151227788</v>
       </c>
       <c r="V19" t="n">
-        <v>37.80788183422995</v>
+        <v>5084.018957745849</v>
       </c>
       <c r="W19" t="n">
-        <v>2927.61716043562</v>
+        <v>402.2426464266829</v>
       </c>
       <c r="X19" t="n">
-        <v>237.2156548386199</v>
+        <v>565.9786757433683</v>
       </c>
       <c r="Y19" t="n">
-        <v>343.8071436553367</v>
+        <v>33.92591239994843</v>
       </c>
       <c r="Z19" t="n">
-        <v>21.00985888065474</v>
+        <v>384.5985726808158</v>
       </c>
       <c r="AA19" t="n">
-        <v>240.2030992657376</v>
+        <v>64.94133593405262</v>
       </c>
       <c r="AB19" t="n">
-        <v>37.81161704481332</v>
+        <v>59067.53973621238</v>
       </c>
       <c r="AC19" t="n">
-        <v>36638.07596128145</v>
+        <v>1968.920555888947</v>
       </c>
       <c r="AD19" t="n">
-        <v>1968.920555888947</v>
+        <v>11688.60153862542</v>
       </c>
       <c r="AE19" t="n">
-        <v>6989.800487779434</v>
+        <v>4716.529151171093</v>
       </c>
       <c r="AF19" t="n">
-        <v>2712.261703761864</v>
+        <v>418.5274272580361</v>
       </c>
       <c r="AG19" t="n">
-        <v>251.3828752100102</v>
+        <v>1380.751274360758</v>
       </c>
       <c r="AH19" t="n">
-        <v>772.6711906789654</v>
+        <v>67.0589909718482</v>
       </c>
       <c r="AI19" t="n">
-        <v>39.7512976842175</v>
+        <v>6097.275233237471</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3484.932894440829</v>
+        <v>485.5882978498805</v>
       </c>
       <c r="AK19" t="n">
-        <v>291.1341728942277</v>
+        <v>636.3162085686093</v>
       </c>
       <c r="AL19" t="n">
-        <v>399.1148905999784</v>
+        <v>32.19029433850884</v>
       </c>
       <c r="AM19" t="n">
-        <v>19.80493344558892</v>
+        <v>458.2711072861541</v>
       </c>
       <c r="AN19" t="n">
-        <v>290.9247432845599</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>48.2433431879145</v>
+        <v>81.41636961274136</v>
       </c>
     </row>
     <row r="20">
@@ -2934,85 +2875,82 @@
         <v>158.5886458671256</v>
       </c>
       <c r="O20" t="n">
-        <v>346.4190711305249</v>
+        <v>51932.23163030713</v>
       </c>
       <c r="P20" t="n">
-        <v>33532.74602437949</v>
+        <v>1731.076720934502</v>
       </c>
       <c r="Q20" t="n">
-        <v>1731.076720934502</v>
+        <v>8899.958079393919</v>
       </c>
       <c r="R20" t="n">
-        <v>5507.791046724802</v>
+        <v>3740.015827881591</v>
       </c>
       <c r="S20" t="n">
-        <v>2223.120866159538</v>
+        <v>334.4790639147181</v>
       </c>
       <c r="T20" t="n">
-        <v>202.1734744525438</v>
+        <v>1185.009074955935</v>
       </c>
       <c r="U20" t="n">
-        <v>691.7972018138177</v>
+        <v>59.62496660899219</v>
       </c>
       <c r="V20" t="n">
-        <v>36.76078783182766</v>
+        <v>4925.023749015233</v>
       </c>
       <c r="W20" t="n">
-        <v>2914.918067973355</v>
+        <v>394.1087620995406</v>
       </c>
       <c r="X20" t="n">
-        <v>238.9342622843715</v>
+        <v>543.6638815044129</v>
       </c>
       <c r="Y20" t="n">
-        <v>351.1344177732448</v>
+        <v>33.24171110311435</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.6415568937771</v>
+        <v>380.830265987244</v>
       </c>
       <c r="AA20" t="n">
-        <v>248.8412316395645</v>
+        <v>63.25221479367038</v>
       </c>
       <c r="AB20" t="n">
-        <v>39.40582316289456</v>
+        <v>56288.20071140055</v>
       </c>
       <c r="AC20" t="n">
-        <v>36633.02919387486</v>
+        <v>1876.272388060606</v>
       </c>
       <c r="AD20" t="n">
-        <v>1876.272388060606</v>
+        <v>11254.47456656182</v>
       </c>
       <c r="AE20" t="n">
-        <v>7050.877089960241</v>
+        <v>4439.565947234935</v>
       </c>
       <c r="AF20" t="n">
-        <v>2739.820361319791</v>
+        <v>385.2263283411434</v>
       </c>
       <c r="AG20" t="n">
-        <v>244.5687577542292</v>
+        <v>1064.568959412252</v>
       </c>
       <c r="AH20" t="n">
-        <v>654.9033685946114</v>
+        <v>53.84354091304015</v>
       </c>
       <c r="AI20" t="n">
-        <v>34.49066363188079</v>
+        <v>5504.136093020412</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3394.723729914403</v>
+        <v>439.0716680432275</v>
       </c>
       <c r="AK20" t="n">
-        <v>279.05942138611</v>
+        <v>619.2688743463236</v>
       </c>
       <c r="AL20" t="n">
-        <v>407.3973267634365</v>
+        <v>32.84960430199438</v>
       </c>
       <c r="AM20" t="n">
-        <v>20.16388340778272</v>
+        <v>446.9842712523676</v>
       </c>
       <c r="AN20" t="n">
-        <v>298.1478852899979</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>50.52897236226814</v>
+        <v>78.36235128823009</v>
       </c>
     </row>
     <row r="21">
@@ -3059,85 +2997,82 @@
         <v>151.668450689493</v>
       </c>
       <c r="O21" t="n">
-        <v>352.2854963411432</v>
+        <v>53931.32172234209</v>
       </c>
       <c r="P21" t="n">
-        <v>33872.32324235168</v>
+        <v>1797.713970523177</v>
       </c>
       <c r="Q21" t="n">
-        <v>1797.713970523177</v>
+        <v>9246.912119092252</v>
       </c>
       <c r="R21" t="n">
-        <v>5573.98026862875</v>
+        <v>3742.7523983614</v>
       </c>
       <c r="S21" t="n">
-        <v>2169.540583618037</v>
+        <v>333.4995110396368</v>
       </c>
       <c r="T21" t="n">
-        <v>200.2413654932339</v>
+        <v>1114.532831904934</v>
       </c>
       <c r="U21" t="n">
-        <v>662.9940074840705</v>
+        <v>55.46614567072039</v>
       </c>
       <c r="V21" t="n">
-        <v>34.33212501149258</v>
+        <v>4857.277195992848</v>
       </c>
       <c r="W21" t="n">
-        <v>2832.534591102107</v>
+        <v>388.9616825374871</v>
       </c>
       <c r="X21" t="n">
-        <v>234.5734905047265</v>
+        <v>554.6182006803866</v>
       </c>
       <c r="Y21" t="n">
-        <v>348.7102354813678</v>
+        <v>30.77642278263956</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.48938771068032</v>
+        <v>384.2452927082172</v>
       </c>
       <c r="AA21" t="n">
-        <v>243.6436673709428</v>
+        <v>59.98281574245851</v>
       </c>
       <c r="AB21" t="n">
-        <v>37.06308803141489</v>
+        <v>57425.78595343247</v>
       </c>
       <c r="AC21" t="n">
-        <v>37309.36942338807</v>
+        <v>1914.189519715052</v>
       </c>
       <c r="AD21" t="n">
-        <v>1914.189519715052</v>
+        <v>11193.30951880473</v>
       </c>
       <c r="AE21" t="n">
-        <v>7154.00090736497</v>
+        <v>4253.022171831667</v>
       </c>
       <c r="AF21" t="n">
-        <v>2656.561855778793</v>
+        <v>379.8730106477415</v>
       </c>
       <c r="AG21" t="n">
-        <v>240.3335173585341</v>
+        <v>961.2957259634148</v>
       </c>
       <c r="AH21" t="n">
-        <v>623.8974141695877</v>
+        <v>52.64499752858317</v>
       </c>
       <c r="AI21" t="n">
-        <v>33.581207327948</v>
+        <v>5214.323483200401</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3280.459269948381</v>
+        <v>432.5126627543294</v>
       </c>
       <c r="AK21" t="n">
-        <v>273.9147246864821</v>
+        <v>629.3287780595331</v>
       </c>
       <c r="AL21" t="n">
-        <v>408.4261083790614</v>
+        <v>29.52887475681188</v>
       </c>
       <c r="AM21" t="n">
-        <v>19.40321914958865</v>
+        <v>462.1214342846865</v>
       </c>
       <c r="AN21" t="n">
-        <v>304.4582474705657</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>46.82073796136378</v>
+        <v>72.537092866397</v>
       </c>
     </row>
     <row r="22">
@@ -3184,85 +3119,82 @@
         <v>149.6646025004246</v>
       </c>
       <c r="O22" t="n">
-        <v>346.0608872058447</v>
+        <v>51133.25049634255</v>
       </c>
       <c r="P22" t="n">
-        <v>33102.1048150295</v>
+        <v>1704.439645413401</v>
       </c>
       <c r="Q22" t="n">
-        <v>1704.439645413401</v>
+        <v>8719.712585735711</v>
       </c>
       <c r="R22" t="n">
-        <v>5461.031545311353</v>
+        <v>3733.246352196848</v>
       </c>
       <c r="S22" t="n">
-        <v>2206.296964394926</v>
+        <v>330.5470629456833</v>
       </c>
       <c r="T22" t="n">
-        <v>199.2356667654008</v>
+        <v>1175.101166652389</v>
       </c>
       <c r="U22" t="n">
-        <v>668.631047264171</v>
+        <v>56.52499516528617</v>
       </c>
       <c r="V22" t="n">
-        <v>33.63825171699114</v>
+        <v>4908.346777571729</v>
       </c>
       <c r="W22" t="n">
-        <v>2874.928011659097</v>
+        <v>387.0778235911796</v>
       </c>
       <c r="X22" t="n">
-        <v>232.8739184823919</v>
+        <v>530.4230015494387</v>
       </c>
       <c r="Y22" t="n">
-        <v>338.6866461616705</v>
+        <v>31.36146578688857</v>
       </c>
       <c r="Z22" t="n">
-        <v>19.77085871822126</v>
+        <v>367.5723970629572</v>
       </c>
       <c r="AA22" t="n">
-        <v>241.4510984300254</v>
+        <v>59.46857987762127</v>
       </c>
       <c r="AB22" t="n">
-        <v>37.26833683393924</v>
+        <v>53636.15730906702</v>
       </c>
       <c r="AC22" t="n">
-        <v>38565.77080324038</v>
+        <v>1787.87481939584</v>
       </c>
       <c r="AD22" t="n">
-        <v>1787.87481939584</v>
+        <v>10490.01404420427</v>
       </c>
       <c r="AE22" t="n">
-        <v>7383.908297727509</v>
+        <v>3773.932343452984</v>
       </c>
       <c r="AF22" t="n">
-        <v>2686.742836551146</v>
+        <v>339.1221804097699</v>
       </c>
       <c r="AG22" t="n">
-        <v>240.8138290769062</v>
+        <v>878.4244104420929</v>
       </c>
       <c r="AH22" t="n">
-        <v>583.7875156017557</v>
+        <v>44.89550452349307</v>
       </c>
       <c r="AI22" t="n">
-        <v>31.45437578379705</v>
+        <v>4652.361062256422</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3270.530352152902</v>
+        <v>384.0212571140389</v>
       </c>
       <c r="AK22" t="n">
-        <v>272.2682048607033</v>
+        <v>587.6546336976021</v>
       </c>
       <c r="AL22" t="n">
-        <v>430.8178143181696</v>
+        <v>27.11918503091958</v>
       </c>
       <c r="AM22" t="n">
-        <v>19.33888314307407</v>
+        <v>438.8933662505552</v>
       </c>
       <c r="AN22" t="n">
-        <v>324.925986305191</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>50.71350322861159</v>
+        <v>68.5035106746344</v>
       </c>
     </row>
     <row r="23">
@@ -3309,85 +3241,82 @@
         <v>151.1954141187206</v>
       </c>
       <c r="O23" t="n">
-        <v>367.7663157990755</v>
+        <v>55505.45912501326</v>
       </c>
       <c r="P23" t="n">
-        <v>33443.80235604278</v>
+        <v>1850.180011921001</v>
       </c>
       <c r="Q23" t="n">
-        <v>1850.180011921001</v>
+        <v>9396.80513699782</v>
       </c>
       <c r="R23" t="n">
-        <v>5323.996926543157</v>
+        <v>3929.616712628984</v>
       </c>
       <c r="S23" t="n">
-        <v>2166.455740454209</v>
+        <v>349.7299299670896</v>
       </c>
       <c r="T23" t="n">
-        <v>200.0163062175989</v>
+        <v>1381.627577400466</v>
       </c>
       <c r="U23" t="n">
-        <v>725.4033859161038</v>
+        <v>64.98231841838772</v>
       </c>
       <c r="V23" t="n">
-        <v>37.20151095974017</v>
+        <v>5311.243446107194</v>
       </c>
       <c r="W23" t="n">
-        <v>2891.859126370313</v>
+        <v>414.7080032990571</v>
       </c>
       <c r="X23" t="n">
-        <v>237.2178171773391</v>
+        <v>552.6041799705453</v>
       </c>
       <c r="Y23" t="n">
-        <v>331.6165926873978</v>
+        <v>26.97845742428638</v>
       </c>
       <c r="Z23" t="n">
-        <v>16.79474812122142</v>
+        <v>380.8560200323076</v>
       </c>
       <c r="AA23" t="n">
-        <v>236.7005276087157</v>
+        <v>55.94946799253091</v>
       </c>
       <c r="AB23" t="n">
-        <v>34.32979774616042</v>
+        <v>59290.78932947526</v>
       </c>
       <c r="AC23" t="n">
-        <v>39680.33119239834</v>
+        <v>1976.363780142374</v>
       </c>
       <c r="AD23" t="n">
-        <v>1976.363780142374</v>
+        <v>11884.55388454655</v>
       </c>
       <c r="AE23" t="n">
-        <v>7625.51618694765</v>
+        <v>4429.492273673374</v>
       </c>
       <c r="AF23" t="n">
-        <v>2793.176662531999</v>
+        <v>400.2756789669833</v>
       </c>
       <c r="AG23" t="n">
-        <v>256.0241185269058</v>
+        <v>1231.505998109493</v>
       </c>
       <c r="AH23" t="n">
-        <v>706.3740112311931</v>
+        <v>54.96162880360583</v>
       </c>
       <c r="AI23" t="n">
-        <v>34.46324856951352</v>
+        <v>5660.990687885222</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3499.550673763192</v>
+        <v>455.2297029537676</v>
       </c>
       <c r="AK23" t="n">
-        <v>290.4873670964193</v>
+        <v>649.874480002521</v>
       </c>
       <c r="AL23" t="n">
-        <v>439.8985688640963</v>
+        <v>30.7230549269426</v>
       </c>
       <c r="AM23" t="n">
-        <v>20.07174234698097</v>
+        <v>471.6246291608599</v>
       </c>
       <c r="AN23" t="n">
-        <v>326.6124017408706</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>51.25515073719562</v>
+        <v>78.09839127190445</v>
       </c>
     </row>
     <row r="24">
@@ -3434,85 +3363,82 @@
         <v>153.8183860310568</v>
       </c>
       <c r="O24" t="n">
-        <v>351.298989309964</v>
+        <v>50679.46315488701</v>
       </c>
       <c r="P24" t="n">
-        <v>31673.91000217282</v>
+        <v>1689.315738218732</v>
       </c>
       <c r="Q24" t="n">
-        <v>1689.315738218732</v>
+        <v>8652.937403084536</v>
       </c>
       <c r="R24" t="n">
-        <v>5179.782099779876</v>
+        <v>3596.91326192121</v>
       </c>
       <c r="S24" t="n">
-        <v>2064.701990315959</v>
+        <v>333.1782290394219</v>
       </c>
       <c r="T24" t="n">
-        <v>192.8116160901596</v>
+        <v>1143.121374575159</v>
       </c>
       <c r="U24" t="n">
-        <v>668.4768609527819</v>
+        <v>56.88402980793959</v>
       </c>
       <c r="V24" t="n">
-        <v>33.87299030620021</v>
+        <v>4740.029848521459</v>
       </c>
       <c r="W24" t="n">
-        <v>2733.178851268741</v>
+        <v>390.0622259206078</v>
       </c>
       <c r="X24" t="n">
-        <v>226.6846063963598</v>
+        <v>547.5873340190979</v>
       </c>
       <c r="Y24" t="n">
-        <v>335.3773544446323</v>
+        <v>39.18478408408319</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.00226297127478</v>
+        <v>367.6755866894572</v>
       </c>
       <c r="AA24" t="n">
-        <v>230.9521100504926</v>
+        <v>58.55422336005427</v>
       </c>
       <c r="AB24" t="n">
-        <v>34.78800319136253</v>
+        <v>55008.89774589591</v>
       </c>
       <c r="AC24" t="n">
-        <v>37956.09764607483</v>
+        <v>1833.636185516826</v>
       </c>
       <c r="AD24" t="n">
-        <v>1833.636185516826</v>
+        <v>10672.15881332078</v>
       </c>
       <c r="AE24" t="n">
-        <v>7192.78687758359</v>
+        <v>4157.182415776068</v>
       </c>
       <c r="AF24" t="n">
-        <v>2741.091729601451</v>
+        <v>381.9143766723834</v>
       </c>
       <c r="AG24" t="n">
-        <v>253.7323413592634</v>
+        <v>1058.858921444395</v>
       </c>
       <c r="AH24" t="n">
-        <v>737.0237407749787</v>
+        <v>57.95786019604986</v>
       </c>
       <c r="AI24" t="n">
-        <v>38.53933562794299</v>
+        <v>5216.034661485327</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3478.11547037643</v>
+        <v>439.8678060139546</v>
       </c>
       <c r="AK24" t="n">
-        <v>292.2716769872064</v>
+        <v>614.8013811961351</v>
       </c>
       <c r="AL24" t="n">
-        <v>422.5751270831585</v>
+        <v>32.89912839073017</v>
       </c>
       <c r="AM24" t="n">
-        <v>20.59143232554595</v>
+        <v>454.2079522036033</v>
       </c>
       <c r="AN24" t="n">
-        <v>316.9028281417411</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>50.17953177225203</v>
+        <v>77.78167937760293</v>
       </c>
     </row>
     <row r="25">
@@ -3559,85 +3485,82 @@
         <v>153.6591994371276</v>
       </c>
       <c r="O25" t="n">
-        <v>365.867683476572</v>
+        <v>56221.2247103628</v>
       </c>
       <c r="P25" t="n">
-        <v>33018.19143528862</v>
+        <v>1874.043159796108</v>
       </c>
       <c r="Q25" t="n">
-        <v>1874.043159796108</v>
+        <v>9592.389308460741</v>
       </c>
       <c r="R25" t="n">
-        <v>5435.827923199549</v>
+        <v>3967.572812076589</v>
       </c>
       <c r="S25" t="n">
-        <v>2163.914924956539</v>
+        <v>363.2285367767034</v>
       </c>
       <c r="T25" t="n">
-        <v>199.1810004031997</v>
+        <v>1344.308394678966</v>
       </c>
       <c r="U25" t="n">
-        <v>685.9380172702258</v>
+        <v>66.76925341054697</v>
       </c>
       <c r="V25" t="n">
-        <v>36.29365761324001</v>
+        <v>5311.882531556003</v>
       </c>
       <c r="W25" t="n">
-        <v>2849.852942226765</v>
+        <v>429.9966234682302</v>
       </c>
       <c r="X25" t="n">
-        <v>235.4746580164397</v>
+        <v>606.4647175569866</v>
       </c>
       <c r="Y25" t="n">
-        <v>349.3715831826476</v>
+        <v>31.57362914789577</v>
       </c>
       <c r="Z25" t="n">
-        <v>17.96052285217631</v>
+        <v>416.7739099879255</v>
       </c>
       <c r="AA25" t="n">
-        <v>243.1938669869985</v>
+        <v>62.71848822195115</v>
       </c>
       <c r="AB25" t="n">
-        <v>35.35148909479643</v>
+        <v>58864.01572239067</v>
       </c>
       <c r="AC25" t="n">
-        <v>39083.30449655208</v>
+        <v>1962.136815119988</v>
       </c>
       <c r="AD25" t="n">
-        <v>1962.136815119988</v>
+        <v>11638.12458197872</v>
       </c>
       <c r="AE25" t="n">
-        <v>7530.094225305497</v>
+        <v>4343.511931538347</v>
       </c>
       <c r="AF25" t="n">
-        <v>2767.958286491255</v>
+        <v>398.3278948192323</v>
       </c>
       <c r="AG25" t="n">
-        <v>255.5092957286147</v>
+        <v>1112.923991939871</v>
       </c>
       <c r="AH25" t="n">
-        <v>693.5629162609611</v>
+        <v>54.38392532801343</v>
       </c>
       <c r="AI25" t="n">
-        <v>35.32218481594006</v>
+        <v>5456.428537954947</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3461.521202752217</v>
+        <v>452.7036829298804</v>
       </c>
       <c r="AK25" t="n">
-        <v>290.8314805445548</v>
+        <v>647.4389633170997</v>
       </c>
       <c r="AL25" t="n">
-        <v>431.0308208194991</v>
+        <v>27.77873772058044</v>
       </c>
       <c r="AM25" t="n">
-        <v>19.32401275543912</v>
+        <v>471.8005340624573</v>
       </c>
       <c r="AN25" t="n">
-        <v>317.0667142165868</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>50.91503967519203</v>
+        <v>78.84811129265931</v>
       </c>
     </row>
     <row r="26">
@@ -3684,85 +3607,82 @@
         <v>156.7472501181564</v>
       </c>
       <c r="O26" t="n">
-        <v>366.0157166462967</v>
+        <v>54335.74933958761</v>
       </c>
       <c r="P26" t="n">
-        <v>34271.14287577912</v>
+        <v>1811.191928072735</v>
       </c>
       <c r="Q26" t="n">
-        <v>1811.191928072735</v>
+        <v>9293.397431971691</v>
       </c>
       <c r="R26" t="n">
-        <v>5522.681754255248</v>
+        <v>3935.61909420563</v>
       </c>
       <c r="S26" t="n">
-        <v>2207.705259019026</v>
+        <v>353.2106897978783</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6679372862777</v>
+        <v>1335.798968430909</v>
       </c>
       <c r="U26" t="n">
-        <v>751.6994192682868</v>
+        <v>64.91991723399705</v>
       </c>
       <c r="V26" t="n">
-        <v>38.45539593446436</v>
+        <v>5271.414837991136</v>
       </c>
       <c r="W26" t="n">
-        <v>2959.404678287312</v>
+        <v>418.1350413755071</v>
       </c>
       <c r="X26" t="n">
-        <v>245.1233332207421</v>
+        <v>569.4256655236484</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.4463499629577</v>
+        <v>34.69011828059568</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.7509122708908</v>
+        <v>388.342470930703</v>
       </c>
       <c r="AA26" t="n">
-        <v>246.6490181822701</v>
+        <v>61.75904726199349</v>
       </c>
       <c r="AB26" t="n">
-        <v>38.20441087127246</v>
+        <v>56970.76686481634</v>
       </c>
       <c r="AC26" t="n">
-        <v>37203.69490672493</v>
+        <v>1899.023399874556</v>
       </c>
       <c r="AD26" t="n">
-        <v>1899.023399874556</v>
+        <v>11008.00371000877</v>
       </c>
       <c r="AE26" t="n">
-        <v>6888.077866380648</v>
+        <v>4210.288047564132</v>
       </c>
       <c r="AF26" t="n">
-        <v>2601.41138421506</v>
+        <v>393.8936118859868</v>
       </c>
       <c r="AG26" t="n">
-        <v>248.8341428212715</v>
+        <v>1170.879619391854</v>
       </c>
       <c r="AH26" t="n">
-        <v>748.2387413245172</v>
+        <v>59.45463995217283</v>
       </c>
       <c r="AI26" t="n">
-        <v>38.08109732689541</v>
+        <v>5381.162553736292</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3349.650125539576</v>
+        <v>453.3545955016545</v>
       </c>
       <c r="AK26" t="n">
-        <v>286.9152401481669</v>
+        <v>611.4494096648606</v>
       </c>
       <c r="AL26" t="n">
-        <v>402.8415959343337</v>
+        <v>31.96877733157282</v>
       </c>
       <c r="AM26" t="n">
-        <v>21.39793626862257</v>
+        <v>437.5015828365611</v>
       </c>
       <c r="AN26" t="n">
-        <v>294.4250225688227</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>50.5273271836221</v>
+        <v>77.71453471043921</v>
       </c>
     </row>
     <row r="27">
@@ -3809,85 +3729,82 @@
         <v>157.5800707668191</v>
       </c>
       <c r="O27" t="n">
-        <v>360.9150735566219</v>
+        <v>53637.30991628564</v>
       </c>
       <c r="P27" t="n">
-        <v>33379.79317452634</v>
+        <v>1787.910197273082</v>
       </c>
       <c r="Q27" t="n">
-        <v>1787.910197273082</v>
+        <v>9232.15965951137</v>
       </c>
       <c r="R27" t="n">
-        <v>5512.14371718231</v>
+        <v>3600.565755112802</v>
       </c>
       <c r="S27" t="n">
-        <v>2144.093613613218</v>
+        <v>333.6755987601204</v>
       </c>
       <c r="T27" t="n">
-        <v>202.0179826014778</v>
+        <v>1167.291331865979</v>
       </c>
       <c r="U27" t="n">
-        <v>689.3354866290059</v>
+        <v>60.74169066346349</v>
       </c>
       <c r="V27" t="n">
-        <v>36.70362934851686</v>
+        <v>4767.861181300551</v>
       </c>
       <c r="W27" t="n">
-        <v>2833.429100242224</v>
+        <v>394.405763457265</v>
       </c>
       <c r="X27" t="n">
-        <v>238.7216119499947</v>
+        <v>568.5368311400897</v>
       </c>
       <c r="Y27" t="n">
-        <v>351.6166008696969</v>
+        <v>31.33095410160533</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.46859479349026</v>
+        <v>378.6328427161002</v>
       </c>
       <c r="AA27" t="n">
-        <v>241.6732092788543</v>
+        <v>65.62487455248295</v>
       </c>
       <c r="AB27" t="n">
-        <v>38.8426382457117</v>
+        <v>55667.84893705212</v>
       </c>
       <c r="AC27" t="n">
-        <v>36993.10039021042</v>
+        <v>1855.593510294027</v>
       </c>
       <c r="AD27" t="n">
-        <v>1855.593510294027</v>
+        <v>10702.624216978</v>
       </c>
       <c r="AE27" t="n">
-        <v>6944.487875279089</v>
+        <v>4265.976366327972</v>
       </c>
       <c r="AF27" t="n">
-        <v>2629.018150952666</v>
+        <v>387.884527585009</v>
       </c>
       <c r="AG27" t="n">
-        <v>244.5044597107828</v>
+        <v>1174.925073398875</v>
       </c>
       <c r="AH27" t="n">
-        <v>697.0052934119593</v>
+        <v>59.69350733925082</v>
       </c>
       <c r="AI27" t="n">
-        <v>36.75417105264437</v>
+        <v>5440.899532793015</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3326.023444364626</v>
+        <v>447.5753965214605</v>
       </c>
       <c r="AK27" t="n">
-        <v>281.2586307634271</v>
+        <v>630.8579417087828</v>
       </c>
       <c r="AL27" t="n">
-        <v>424.1383197189472</v>
+        <v>32.57973258170949</v>
       </c>
       <c r="AM27" t="n">
-        <v>20.76526789276551</v>
+        <v>448.6029794705391</v>
       </c>
       <c r="AN27" t="n">
-        <v>307.5907501324597</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>51.04797610990084</v>
+        <v>79.1771046561047</v>
       </c>
     </row>
     <row r="28">
@@ -3934,85 +3851,82 @@
         <v>147.6168043711671</v>
       </c>
       <c r="O28" t="n">
-        <v>345.9108700905407</v>
+        <v>53105.87489694964</v>
       </c>
       <c r="P28" t="n">
-        <v>33507.28998475075</v>
+        <v>1770.195900453216</v>
       </c>
       <c r="Q28" t="n">
-        <v>1770.195900453216</v>
+        <v>9289.934332199618</v>
       </c>
       <c r="R28" t="n">
-        <v>5563.291892995991</v>
+        <v>3654.342273098254</v>
       </c>
       <c r="S28" t="n">
-        <v>2207.805096766108</v>
+        <v>331.3761344943455</v>
       </c>
       <c r="T28" t="n">
-        <v>200.9078038072274</v>
+        <v>1064.994102845311</v>
       </c>
       <c r="U28" t="n">
-        <v>655.4567160907603</v>
+        <v>55.01508590119522</v>
       </c>
       <c r="V28" t="n">
-        <v>34.54161683101692</v>
+        <v>4719.333080522495</v>
       </c>
       <c r="W28" t="n">
-        <v>2863.261812856868</v>
+        <v>386.3953795041393</v>
       </c>
       <c r="X28" t="n">
-        <v>235.4494206382443</v>
+        <v>541.8039905322665</v>
       </c>
       <c r="Y28" t="n">
-        <v>338.9380808536606</v>
+        <v>32.65895069617806</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.66312566007283</v>
+        <v>384.4178293966082</v>
       </c>
       <c r="AA28" t="n">
-        <v>242.7098783016735</v>
+        <v>61.18250049861442</v>
       </c>
       <c r="AB28" t="n">
-        <v>37.29489016297481</v>
+        <v>55763.63528642379</v>
       </c>
       <c r="AC28" t="n">
-        <v>39302.54626828991</v>
+        <v>1858.789256193254</v>
       </c>
       <c r="AD28" t="n">
-        <v>1858.789256193254</v>
+        <v>10720.88235559861</v>
       </c>
       <c r="AE28" t="n">
-        <v>7425.771897628161</v>
+        <v>4226.193164758139</v>
       </c>
       <c r="AF28" t="n">
-        <v>2781.88251295343</v>
+        <v>379.1685926058976</v>
       </c>
       <c r="AG28" t="n">
-        <v>257.4096392439719</v>
+        <v>1076.928391053767</v>
       </c>
       <c r="AH28" t="n">
-        <v>703.8238707332674</v>
+        <v>54.21689331897983</v>
       </c>
       <c r="AI28" t="n">
-        <v>38.33782208805948</v>
+        <v>5303.115473848569</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3485.706383686698</v>
+        <v>433.3861359146735</v>
       </c>
       <c r="AK28" t="n">
-        <v>295.7474613320314</v>
+        <v>592.3719440785117</v>
       </c>
       <c r="AL28" t="n">
-        <v>422.657159616813</v>
+        <v>33.82730858472202</v>
       </c>
       <c r="AM28" t="n">
-        <v>22.35245397241709</v>
+        <v>430.9830552634257</v>
       </c>
       <c r="AN28" t="n">
-        <v>314.8254883874071</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>50.39185264582873</v>
+        <v>71.63394268803073</v>
       </c>
     </row>
     <row r="29">
@@ -4059,85 +3973,82 @@
         <v>160.8903306266767</v>
       </c>
       <c r="O29" t="n">
-        <v>361.687520591629</v>
+        <v>54117.12932227047</v>
       </c>
       <c r="P29" t="n">
-        <v>30797.45503008616</v>
+        <v>1803.903723900865</v>
       </c>
       <c r="Q29" t="n">
-        <v>1803.903723900865</v>
+        <v>9151.738358324334</v>
       </c>
       <c r="R29" t="n">
-        <v>4927.152410369504</v>
+        <v>3958.37440521007</v>
       </c>
       <c r="S29" t="n">
-        <v>2065.011084165541</v>
+        <v>370.6188513043074</v>
       </c>
       <c r="T29" t="n">
-        <v>196.842123725453</v>
+        <v>1324.719268698112</v>
       </c>
       <c r="U29" t="n">
-        <v>691.8469341289301</v>
+        <v>67.23181930253945</v>
       </c>
       <c r="V29" t="n">
-        <v>36.78345426483927</v>
+        <v>5283.09430473974</v>
       </c>
       <c r="W29" t="n">
-        <v>2756.858018294472</v>
+        <v>437.8525687557346</v>
       </c>
       <c r="X29" t="n">
-        <v>233.6255779902922</v>
+        <v>578.7937982607557</v>
       </c>
       <c r="Y29" t="n">
-        <v>322.8314661055027</v>
+        <v>37.64710471480909</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.56501290470822</v>
+        <v>372.9160764342745</v>
       </c>
       <c r="AA29" t="n">
-        <v>222.015568457413</v>
+        <v>68.25599284296253</v>
       </c>
       <c r="AB29" t="n">
-        <v>35.48904880615103</v>
+        <v>57262.25495589335</v>
       </c>
       <c r="AC29" t="n">
-        <v>39398.69948907172</v>
+        <v>1908.740944809842</v>
       </c>
       <c r="AD29" t="n">
-        <v>1908.740944809842</v>
+        <v>10959.83916046431</v>
       </c>
       <c r="AE29" t="n">
-        <v>7220.229426210534</v>
+        <v>4231.874605068629</v>
       </c>
       <c r="AF29" t="n">
-        <v>2726.761969107773</v>
+        <v>388.408925047222</v>
       </c>
       <c r="AG29" t="n">
-        <v>254.3423122120574</v>
+        <v>1143.935609511523</v>
       </c>
       <c r="AH29" t="n">
-        <v>731.7415348346179</v>
+        <v>56.4702107650365</v>
       </c>
       <c r="AI29" t="n">
-        <v>38.25932245587587</v>
+        <v>5375.80633959372</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3458.503503942391</v>
+        <v>444.8771131552818</v>
       </c>
       <c r="AK29" t="n">
-        <v>292.6016346679333</v>
+        <v>652.2906687188237</v>
       </c>
       <c r="AL29" t="n">
-        <v>453.6786992624245</v>
+        <v>33.97049378523907</v>
       </c>
       <c r="AM29" t="n">
-        <v>20.92070706672448</v>
+        <v>469.3227924670909</v>
       </c>
       <c r="AN29" t="n">
-        <v>334.9925458471888</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>58.48412821755684</v>
+        <v>85.99516974291616</v>
       </c>
     </row>
     <row r="30">
@@ -4184,85 +4095,82 @@
         <v>156.4201411500837</v>
       </c>
       <c r="O30" t="n">
-        <v>364.2343367605891</v>
+        <v>54272.40817063927</v>
       </c>
       <c r="P30" t="n">
-        <v>31929.41836239398</v>
+        <v>1809.079394798466</v>
       </c>
       <c r="Q30" t="n">
-        <v>1809.079394798466</v>
+        <v>9161.698926756633</v>
       </c>
       <c r="R30" t="n">
-        <v>5233.312294132147</v>
+        <v>3773.290754540976</v>
       </c>
       <c r="S30" t="n">
-        <v>2085.400352871266</v>
+        <v>338.5748354955182</v>
       </c>
       <c r="T30" t="n">
-        <v>194.7381609853216</v>
+        <v>1139.344502952023</v>
       </c>
       <c r="U30" t="n">
-        <v>643.3110451233266</v>
+        <v>59.41720669684475</v>
       </c>
       <c r="V30" t="n">
-        <v>34.31396963172968</v>
+        <v>4912.633675547326</v>
       </c>
       <c r="W30" t="n">
-        <v>2728.711397994593</v>
+        <v>397.9892203980087</v>
       </c>
       <c r="X30" t="n">
-        <v>229.0521306170513</v>
+        <v>556.0291033474066</v>
       </c>
       <c r="Y30" t="n">
-        <v>324.1127802431607</v>
+        <v>32.17725009653996</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.72753925731996</v>
+        <v>386.4425468155567</v>
       </c>
       <c r="AA30" t="n">
-        <v>230.7833265239904</v>
+        <v>68.11524104467416</v>
       </c>
       <c r="AB30" t="n">
-        <v>36.89572571521524</v>
+        <v>58417.34494580586</v>
       </c>
       <c r="AC30" t="n">
-        <v>39286.91550190018</v>
+        <v>1947.247132317733</v>
       </c>
       <c r="AD30" t="n">
-        <v>1947.247132317733</v>
+        <v>11402.11753648726</v>
       </c>
       <c r="AE30" t="n">
-        <v>7539.237470847168</v>
+        <v>4423.61582547983</v>
       </c>
       <c r="AF30" t="n">
-        <v>2858.350694248181</v>
+        <v>406.8726384296805</v>
       </c>
       <c r="AG30" t="n">
-        <v>269.2820279879082</v>
+        <v>1214.024361719927</v>
       </c>
       <c r="AH30" t="n">
-        <v>775.1090125989415</v>
+        <v>62.60573822770215</v>
       </c>
       <c r="AI30" t="n">
-        <v>41.246678710496</v>
+        <v>5637.648271346334</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3633.459706847123</v>
+        <v>469.4790919277039</v>
       </c>
       <c r="AK30" t="n">
-        <v>310.5287066984042</v>
+        <v>625.0969336092413</v>
       </c>
       <c r="AL30" t="n">
-        <v>426.0288638138159</v>
+        <v>32.47180746402019</v>
       </c>
       <c r="AM30" t="n">
-        <v>22.57984878832561</v>
+        <v>452.8647911551498</v>
       </c>
       <c r="AN30" t="n">
-        <v>313.9635239858371</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>52.45356640421966</v>
+        <v>79.1783425640816</v>
       </c>
     </row>
     <row r="31">
@@ -4309,85 +4217,82 @@
         <v>159.1750896256306</v>
       </c>
       <c r="O31" t="n">
-        <v>350.4704222830038</v>
+        <v>52742.95761315067</v>
       </c>
       <c r="P31" t="n">
-        <v>32320.74447884407</v>
+        <v>1758.09754961015</v>
       </c>
       <c r="Q31" t="n">
-        <v>1758.09754961015</v>
+        <v>9226.811311038336</v>
       </c>
       <c r="R31" t="n">
-        <v>5390.941734514853</v>
+        <v>3831.431616677953</v>
       </c>
       <c r="S31" t="n">
-        <v>2142.989069368135</v>
+        <v>359.974060896684</v>
       </c>
       <c r="T31" t="n">
-        <v>207.3332074207537</v>
+        <v>1369.187907094121</v>
       </c>
       <c r="U31" t="n">
-        <v>765.1933654939002</v>
+        <v>70.11589874911202</v>
       </c>
       <c r="V31" t="n">
-        <v>39.04052122949982</v>
+        <v>5200.618752606556</v>
       </c>
       <c r="W31" t="n">
-        <v>2908.182434862035</v>
+        <v>430.098169719325</v>
       </c>
       <c r="X31" t="n">
-        <v>246.3737286502535</v>
+        <v>570.6478228498414</v>
       </c>
       <c r="Y31" t="n">
-        <v>347.3972256905489</v>
+        <v>35.15299270291633</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.71995763177508</v>
+        <v>384.6752588289168</v>
       </c>
       <c r="AA31" t="n">
-        <v>244.0346451604552</v>
+        <v>60.48177773554632</v>
       </c>
       <c r="AB31" t="n">
-        <v>35.14342945422875</v>
+        <v>55913.17683531695</v>
       </c>
       <c r="AC31" t="n">
-        <v>37618.11481536617</v>
+        <v>1863.773089524401</v>
       </c>
       <c r="AD31" t="n">
-        <v>1863.773089524401</v>
+        <v>11155.36321161542</v>
       </c>
       <c r="AE31" t="n">
-        <v>7257.482395668384</v>
+        <v>4297.628209579482</v>
       </c>
       <c r="AF31" t="n">
-        <v>2784.692832592042</v>
+        <v>395.8357879880326</v>
       </c>
       <c r="AG31" t="n">
-        <v>258.6384026736076</v>
+        <v>1086.647485855023</v>
       </c>
       <c r="AH31" t="n">
-        <v>685.1392181964582</v>
+        <v>57.63552663973337</v>
       </c>
       <c r="AI31" t="n">
-        <v>38.04557930304469</v>
+        <v>5384.268984041678</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3469.8320507885</v>
+        <v>453.4861940933397</v>
       </c>
       <c r="AK31" t="n">
-        <v>296.6839819766523</v>
+        <v>635.6013340797082</v>
       </c>
       <c r="AL31" t="n">
-        <v>428.8560629362942</v>
+        <v>35.89468653938938</v>
       </c>
       <c r="AM31" t="n">
-        <v>23.83241517406023</v>
+        <v>443.2051582204253</v>
       </c>
       <c r="AN31" t="n">
-        <v>306.3023725030019</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>53.00283599055265</v>
+        <v>84.81979385780605</v>
       </c>
     </row>
     <row r="32">
@@ -4434,85 +4339,82 @@
         <v>162.9042821186375</v>
       </c>
       <c r="O32" t="n">
-        <v>347.7680697453916</v>
+        <v>52190.53331371032</v>
       </c>
       <c r="P32" t="n">
-        <v>35613.1391324252</v>
+        <v>1739.68647404894</v>
       </c>
       <c r="Q32" t="n">
-        <v>1739.68647404894</v>
+        <v>8840.487981711465</v>
       </c>
       <c r="R32" t="n">
-        <v>5828.624329620562</v>
+        <v>3507.036727973969</v>
       </c>
       <c r="S32" t="n">
-        <v>2212.016603446356</v>
+        <v>318.3623347234025</v>
       </c>
       <c r="T32" t="n">
-        <v>205.8856290634278</v>
+        <v>1111.121415282586</v>
       </c>
       <c r="U32" t="n">
-        <v>690.584690817972</v>
+        <v>54.12119936546902</v>
       </c>
       <c r="V32" t="n">
-        <v>35.0544731838855</v>
+        <v>4618.152467275548</v>
       </c>
       <c r="W32" t="n">
-        <v>2902.601294264328</v>
+        <v>372.4842980140597</v>
       </c>
       <c r="X32" t="n">
-        <v>240.9401022473133</v>
+        <v>562.7858418168609</v>
       </c>
       <c r="Y32" t="n">
-        <v>373.5695329745042</v>
+        <v>29.50250637265399</v>
       </c>
       <c r="Z32" t="n">
-        <v>19.21763679144305</v>
+        <v>380.0799454262653</v>
       </c>
       <c r="AA32" t="n">
-        <v>263.2595734939757</v>
+        <v>56.36957108542512</v>
       </c>
       <c r="AB32" t="n">
-        <v>37.12856823525973</v>
+        <v>55721.82373307662</v>
       </c>
       <c r="AC32" t="n">
-        <v>41269.27470164805</v>
+        <v>1857.391006616377</v>
       </c>
       <c r="AD32" t="n">
-        <v>1857.391006616377</v>
+        <v>10563.56775487346</v>
       </c>
       <c r="AE32" t="n">
-        <v>7716.419504492355</v>
+        <v>3817.69259506322</v>
       </c>
       <c r="AF32" t="n">
-        <v>2755.338543922291</v>
+        <v>352.8199472885385</v>
       </c>
       <c r="AG32" t="n">
-        <v>256.587596948012</v>
+        <v>945.9373611728764</v>
       </c>
       <c r="AH32" t="n">
-        <v>683.9571574547372</v>
+        <v>46.46210098174691</v>
       </c>
       <c r="AI32" t="n">
-        <v>34.98323063201529</v>
+        <v>4763.625173775642</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3439.295701377028</v>
+        <v>399.285999332767</v>
       </c>
       <c r="AK32" t="n">
-        <v>291.5708275800274</v>
+        <v>614.3513176084484</v>
       </c>
       <c r="AL32" t="n">
-        <v>469.689704466854</v>
+        <v>27.92819402808452</v>
       </c>
       <c r="AM32" t="n">
-        <v>20.73841380780683</v>
+        <v>454.9033430436332</v>
       </c>
       <c r="AN32" t="n">
-        <v>347.0760681254512</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>54.469269216449</v>
+        <v>77.03199936550925</v>
       </c>
     </row>
     <row r="33">
@@ -4559,85 +4461,82 @@
         <v>150.6869070228731</v>
       </c>
       <c r="O33" t="n">
-        <v>365.5755410579359</v>
+        <v>54641.43216858306</v>
       </c>
       <c r="P33" t="n">
-        <v>33088.44811482485</v>
+        <v>1821.375819851681</v>
       </c>
       <c r="Q33" t="n">
-        <v>1821.375819851681</v>
+        <v>9532.464011612296</v>
       </c>
       <c r="R33" t="n">
-        <v>5465.543621359968</v>
+        <v>3853.74993204649</v>
       </c>
       <c r="S33" t="n">
-        <v>2167.523885153697</v>
+        <v>340.6178356442492</v>
       </c>
       <c r="T33" t="n">
-        <v>196.0791700951205</v>
+        <v>1235.498314621835</v>
       </c>
       <c r="U33" t="n">
-        <v>671.5012660268184</v>
+        <v>60.87505966833536</v>
       </c>
       <c r="V33" t="n">
-        <v>33.94171250724713</v>
+        <v>5089.24137187894</v>
       </c>
       <c r="W33" t="n">
-        <v>2839.025151180515</v>
+        <v>401.4922730341863</v>
       </c>
       <c r="X33" t="n">
-        <v>230.0208826023677</v>
+        <v>548.2582497485628</v>
       </c>
       <c r="Y33" t="n">
-        <v>332.2814082391513</v>
+        <v>28.05001868737223</v>
       </c>
       <c r="Z33" t="n">
-        <v>18.59458571663119</v>
+        <v>381.0278067616307</v>
       </c>
       <c r="AA33" t="n">
-        <v>235.9853775756035</v>
+        <v>62.54918829287228</v>
       </c>
       <c r="AB33" t="n">
-        <v>36.36379142475324</v>
+        <v>58305.44126732168</v>
       </c>
       <c r="AC33" t="n">
-        <v>38513.03734428241</v>
+        <v>1943.521882426883</v>
       </c>
       <c r="AD33" t="n">
-        <v>1943.521882426883</v>
+        <v>11421.15646850145</v>
       </c>
       <c r="AE33" t="n">
-        <v>7323.048043656589</v>
+        <v>4463.75207858902</v>
       </c>
       <c r="AF33" t="n">
-        <v>2683.730373455807</v>
+        <v>393.0715770636579</v>
       </c>
       <c r="AG33" t="n">
-        <v>245.3487275182075</v>
+        <v>1229.119772879393</v>
       </c>
       <c r="AH33" t="n">
-        <v>694.3315233378206</v>
+        <v>62.7974313427606</v>
       </c>
       <c r="AI33" t="n">
-        <v>37.03850266174503</v>
+        <v>5692.872053504717</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3378.061896793628</v>
+        <v>455.865204862223</v>
       </c>
       <c r="AK33" t="n">
-        <v>282.3872301799526</v>
+        <v>625.9852596109909</v>
       </c>
       <c r="AL33" t="n">
-        <v>426.3276046634585</v>
+        <v>24.5533463563426</v>
       </c>
       <c r="AM33" t="n">
-        <v>17.62610547253163</v>
+        <v>459.3860266604158</v>
       </c>
       <c r="AN33" t="n">
-        <v>315.555110690283</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>50.43513877454095</v>
+        <v>76.6316290457895</v>
       </c>
     </row>
     <row r="34">
@@ -4684,85 +4583,82 @@
         <v>157.0689617181039</v>
       </c>
       <c r="O34" t="n">
-        <v>368.4133733036566</v>
+        <v>55544.94125820658</v>
       </c>
       <c r="P34" t="n">
-        <v>33327.52004631608</v>
+        <v>1851.496481238834</v>
       </c>
       <c r="Q34" t="n">
-        <v>1851.496481238834</v>
+        <v>9333.327706832575</v>
       </c>
       <c r="R34" t="n">
-        <v>5236.656488303849</v>
+        <v>3818.056541752576</v>
       </c>
       <c r="S34" t="n">
-        <v>2073.913326862563</v>
+        <v>350.7115997676487</v>
       </c>
       <c r="T34" t="n">
-        <v>194.0990775452392</v>
+        <v>1312.646557285727</v>
       </c>
       <c r="U34" t="n">
-        <v>679.9643917445633</v>
+        <v>55.97917404159571</v>
       </c>
       <c r="V34" t="n">
-        <v>33.83553581692364</v>
+        <v>5130.701900767356</v>
       </c>
       <c r="W34" t="n">
-        <v>2753.877718607126</v>
+        <v>406.6946212295414</v>
       </c>
       <c r="X34" t="n">
-        <v>227.9346133621628</v>
+        <v>572.1289289163705</v>
       </c>
       <c r="Y34" t="n">
-        <v>341.7252085977206</v>
+        <v>27.46820569440052</v>
       </c>
       <c r="Z34" t="n">
-        <v>17.6834401969162</v>
+        <v>392.7297430834579</v>
       </c>
       <c r="AA34" t="n">
-        <v>241.4689960258158</v>
+        <v>70.26247166304915</v>
       </c>
       <c r="AB34" t="n">
-        <v>39.07826710012585</v>
+        <v>58657.83078470363</v>
       </c>
       <c r="AC34" t="n">
-        <v>39625.91123715163</v>
+        <v>1955.263984462965</v>
       </c>
       <c r="AD34" t="n">
-        <v>1955.263984462965</v>
+        <v>11202.17583466787</v>
       </c>
       <c r="AE34" t="n">
-        <v>7315.816999395734</v>
+        <v>4223.407434128272</v>
       </c>
       <c r="AF34" t="n">
-        <v>2690.018504033393</v>
+        <v>367.8101268865041</v>
       </c>
       <c r="AG34" t="n">
-        <v>238.8334380359906</v>
+        <v>1070.491674441822</v>
       </c>
       <c r="AH34" t="n">
-        <v>644.2715951998683</v>
+        <v>52.0550763213184</v>
       </c>
       <c r="AI34" t="n">
-        <v>33.44712580113219</v>
+        <v>5293.902833435368</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3334.290099233261</v>
+        <v>419.8673469099865</v>
       </c>
       <c r="AK34" t="n">
-        <v>272.2805638371228</v>
+        <v>617.2831617815574</v>
       </c>
       <c r="AL34" t="n">
-        <v>424.6379950229493</v>
+        <v>28.17909621204068</v>
       </c>
       <c r="AM34" t="n">
-        <v>19.30296805394091</v>
+        <v>473.3655164211071</v>
       </c>
       <c r="AN34" t="n">
-        <v>322.5248131617698</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>51.00681780601752</v>
+        <v>77.84787425907676</v>
       </c>
     </row>
     <row r="35">
@@ -4809,85 +4705,82 @@
         <v>147.7219039601456</v>
       </c>
       <c r="O35" t="n">
-        <v>376.0911555970972</v>
+        <v>57613.70148520369</v>
       </c>
       <c r="P35" t="n">
-        <v>34696.47853320066</v>
+        <v>1920.45313116687</v>
       </c>
       <c r="Q35" t="n">
-        <v>1920.45313116687</v>
+        <v>9852.553749748873</v>
       </c>
       <c r="R35" t="n">
-        <v>5662.972617549002</v>
+        <v>4001.89513941623</v>
       </c>
       <c r="S35" t="n">
-        <v>2219.745196964393</v>
+        <v>358.014802285272</v>
       </c>
       <c r="T35" t="n">
-        <v>203.5132102961993</v>
+        <v>1335.630281802878</v>
       </c>
       <c r="U35" t="n">
-        <v>722.6199674608778</v>
+        <v>64.46884676052801</v>
       </c>
       <c r="V35" t="n">
-        <v>36.73644365839686</v>
+        <v>5337.518112144715</v>
       </c>
       <c r="W35" t="n">
-        <v>2942.365164425271</v>
+        <v>422.4843131959782</v>
       </c>
       <c r="X35" t="n">
-        <v>240.2496539545961</v>
+        <v>577.2724761513066</v>
       </c>
       <c r="Y35" t="n">
-        <v>345.4198340394432</v>
+        <v>32.71293418284704</v>
       </c>
       <c r="Z35" t="n">
-        <v>19.34953190765966</v>
+        <v>391.3209588512061</v>
       </c>
       <c r="AA35" t="n">
-        <v>239.8466191912068</v>
+        <v>66.77153147493704</v>
       </c>
       <c r="AB35" t="n">
-        <v>38.02031168564868</v>
+        <v>59537.6571014767</v>
       </c>
       <c r="AC35" t="n">
-        <v>36737.14006406189</v>
+        <v>1984.580657314096</v>
       </c>
       <c r="AD35" t="n">
-        <v>1984.580657314096</v>
+        <v>11527.3356731069</v>
       </c>
       <c r="AE35" t="n">
-        <v>7002.527558139614</v>
+        <v>4485.78429670659</v>
       </c>
       <c r="AF35" t="n">
-        <v>2671.997013141949</v>
+        <v>412.8189166054025</v>
       </c>
       <c r="AG35" t="n">
-        <v>246.6692264468403</v>
+        <v>1235.441152836582</v>
       </c>
       <c r="AH35" t="n">
-        <v>716.0476080985665</v>
+        <v>61.30505313322169</v>
       </c>
       <c r="AI35" t="n">
-        <v>38.10758222659477</v>
+        <v>5721.23129538486</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3388.044621240515</v>
+        <v>474.1305626516127</v>
       </c>
       <c r="AK35" t="n">
-        <v>284.7768086734351</v>
+        <v>641.5708487470287</v>
       </c>
       <c r="AL35" t="n">
-        <v>397.7048638807332</v>
+        <v>35.47083733085965</v>
       </c>
       <c r="AM35" t="n">
-        <v>20.63878831467521</v>
+        <v>461.6430642199484</v>
       </c>
       <c r="AN35" t="n">
-        <v>291.2665271118921</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>47.04657623817575</v>
+        <v>76.42978389418607</v>
       </c>
     </row>
     <row r="36">
@@ -4934,85 +4827,82 @@
         <v>150.7001117111527</v>
       </c>
       <c r="O36" t="n">
-        <v>350.387348730527</v>
+        <v>52878.10575408552</v>
       </c>
       <c r="P36" t="n">
-        <v>33334.20812893497</v>
+        <v>1762.59961575956</v>
       </c>
       <c r="Q36" t="n">
-        <v>1762.59961575956</v>
+        <v>9050.036403466202</v>
       </c>
       <c r="R36" t="n">
-        <v>5467.444905377532</v>
+        <v>3875.366346802446</v>
       </c>
       <c r="S36" t="n">
-        <v>2264.311137707783</v>
+        <v>354.7432028239255</v>
       </c>
       <c r="T36" t="n">
-        <v>209.591688156335</v>
+        <v>1270.315617463238</v>
       </c>
       <c r="U36" t="n">
-        <v>704.3835812301558</v>
+        <v>65.7525807827147</v>
       </c>
       <c r="V36" t="n">
-        <v>38.46635684279561</v>
+        <v>5145.688782557262</v>
       </c>
       <c r="W36" t="n">
-        <v>2968.694718937939</v>
+        <v>420.4957805793531</v>
       </c>
       <c r="X36" t="n">
-        <v>248.0580449991306</v>
+        <v>554.3965995549984</v>
       </c>
       <c r="Y36" t="n">
-        <v>339.9000213252727</v>
+        <v>33.83481915125131</v>
       </c>
       <c r="Z36" t="n">
-        <v>19.8445082286717</v>
+        <v>383.021073121707</v>
       </c>
       <c r="AA36" t="n">
-        <v>241.0417753044354</v>
+        <v>58.68480028292853</v>
       </c>
       <c r="AB36" t="n">
-        <v>35.47511741091144</v>
+        <v>55282.58554137858</v>
       </c>
       <c r="AC36" t="n">
-        <v>38985.96020639309</v>
+        <v>1842.752312294431</v>
       </c>
       <c r="AD36" t="n">
-        <v>1842.752312294431</v>
+        <v>10348.69220749449</v>
       </c>
       <c r="AE36" t="n">
-        <v>7234.734082654128</v>
+        <v>4015.685952324744</v>
       </c>
       <c r="AF36" t="n">
-        <v>2689.054786998482</v>
+        <v>365.6592993898401</v>
       </c>
       <c r="AG36" t="n">
-        <v>244.9894413784798</v>
+        <v>994.1719125197061</v>
       </c>
       <c r="AH36" t="n">
-        <v>643.3474323140537</v>
+        <v>53.35501053330817</v>
       </c>
       <c r="AI36" t="n">
-        <v>35.60592911273773</v>
+        <v>5009.861264732391</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3332.402219312535</v>
+        <v>419.0124922146066</v>
       </c>
       <c r="AK36" t="n">
-        <v>280.5953704912176</v>
+        <v>587.1089848034341</v>
       </c>
       <c r="AL36" t="n">
-        <v>426.2496302409365</v>
+        <v>29.40215262844923</v>
       </c>
       <c r="AM36" t="n">
-        <v>20.82016453830427</v>
+        <v>436.5940874999564</v>
       </c>
       <c r="AN36" t="n">
-        <v>322.1811090211959</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>51.69479469984555</v>
+        <v>72.92067921089964</v>
       </c>
     </row>
     <row r="37">
@@ -5059,85 +4949,82 @@
         <v>155.4118182162109</v>
       </c>
       <c r="O37" t="n">
-        <v>365.0942869237056</v>
+        <v>52838.30566066862</v>
       </c>
       <c r="P37" t="n">
-        <v>30946.34149853488</v>
+        <v>1761.274702536004</v>
       </c>
       <c r="Q37" t="n">
-        <v>1761.274702536004</v>
+        <v>8893.906805636214</v>
       </c>
       <c r="R37" t="n">
-        <v>4997.158949665085</v>
+        <v>3683.359566549543</v>
       </c>
       <c r="S37" t="n">
-        <v>2041.997406838557</v>
+        <v>337.7397261502136</v>
       </c>
       <c r="T37" t="n">
-        <v>191.1790749535788</v>
+        <v>1466.540708723043</v>
       </c>
       <c r="U37" t="n">
-        <v>794.6276606185611</v>
+        <v>69.97704067561817</v>
       </c>
       <c r="V37" t="n">
-        <v>39.52264273622172</v>
+        <v>5149.886194705951</v>
       </c>
       <c r="W37" t="n">
-        <v>2836.625067457117</v>
+        <v>407.7153300498682</v>
       </c>
       <c r="X37" t="n">
-        <v>230.7017176898005</v>
+        <v>543.5206704742501</v>
       </c>
       <c r="Y37" t="n">
-        <v>319.6385042599503</v>
+        <v>33.00659445337288</v>
       </c>
       <c r="Z37" t="n">
-        <v>19.71846069311696</v>
+        <v>370.4694615179919</v>
       </c>
       <c r="AA37" t="n">
-        <v>220.2242567838061</v>
+        <v>65.14264745333183</v>
       </c>
       <c r="AB37" t="n">
-        <v>37.10241634091123</v>
+        <v>56640.19408655817</v>
       </c>
       <c r="AC37" t="n">
-        <v>38266.33645147943</v>
+        <v>1888.003483554338</v>
       </c>
       <c r="AD37" t="n">
-        <v>1888.003483554338</v>
+        <v>10805.12644264224</v>
       </c>
       <c r="AE37" t="n">
-        <v>7048.037094254862</v>
+        <v>4133.3186346192</v>
       </c>
       <c r="AF37" t="n">
-        <v>2731.504612966471</v>
+        <v>380.0451145816846</v>
       </c>
       <c r="AG37" t="n">
-        <v>255.6573998739936</v>
+        <v>1087.60651246213</v>
       </c>
       <c r="AH37" t="n">
-        <v>747.6006634330913</v>
+        <v>57.0151791721748</v>
       </c>
       <c r="AI37" t="n">
-        <v>40.37497954438356</v>
+        <v>5220.931252829773</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3479.105276399563</v>
+        <v>437.0623199754768</v>
       </c>
       <c r="AK37" t="n">
-        <v>296.0323794183772</v>
+        <v>609.5644272509402</v>
       </c>
       <c r="AL37" t="n">
-        <v>415.7485911644202</v>
+        <v>30.53919154097107</v>
       </c>
       <c r="AM37" t="n">
-        <v>21.39490334677543</v>
+        <v>441.9412008956093</v>
       </c>
       <c r="AN37" t="n">
-        <v>306.8005258333732</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>49.09353097396393</v>
+        <v>74.02762897225975</v>
       </c>
     </row>
     <row r="38">
@@ -5184,85 +5071,82 @@
         <v>146.475144052765</v>
       </c>
       <c r="O38" t="n">
-        <v>368.5424628919621</v>
+        <v>52683.67148213192</v>
       </c>
       <c r="P38" t="n">
-        <v>32015.70741930564</v>
+        <v>1756.121566757973</v>
       </c>
       <c r="Q38" t="n">
-        <v>1756.121566757973</v>
+        <v>8742.321281051281</v>
       </c>
       <c r="R38" t="n">
-        <v>5079.635747444908</v>
+        <v>3631.875925652454</v>
       </c>
       <c r="S38" t="n">
-        <v>2057.952790756218</v>
+        <v>330.842923573893</v>
       </c>
       <c r="T38" t="n">
-        <v>190.8067547150493</v>
+        <v>1291.67749199908</v>
       </c>
       <c r="U38" t="n">
-        <v>715.5734370488359</v>
+        <v>61.25852838186905</v>
       </c>
       <c r="V38" t="n">
-        <v>36.17510649701247</v>
+        <v>4923.556752550421</v>
       </c>
       <c r="W38" t="n">
-        <v>2773.526227805054</v>
+        <v>392.1116079053595</v>
       </c>
       <c r="X38" t="n">
-        <v>226.9818612120618</v>
+        <v>536.0657458923008</v>
       </c>
       <c r="Y38" t="n">
-        <v>315.0266376633332</v>
+        <v>32.21428701669849</v>
       </c>
       <c r="Z38" t="n">
-        <v>18.54221794624979</v>
+        <v>370.8614177764831</v>
       </c>
       <c r="AA38" t="n">
-        <v>224.8215950837288</v>
+        <v>59.0430091585862</v>
       </c>
       <c r="AB38" t="n">
-        <v>33.26416071674428</v>
+        <v>55307.80057831547</v>
       </c>
       <c r="AC38" t="n">
-        <v>38230.26667173835</v>
+        <v>1843.594726217576</v>
       </c>
       <c r="AD38" t="n">
-        <v>1843.594726217576</v>
+        <v>10301.72134688631</v>
       </c>
       <c r="AE38" t="n">
-        <v>6906.028278623483</v>
+        <v>3979.931107853397</v>
       </c>
       <c r="AF38" t="n">
-        <v>2654.776868791579</v>
+        <v>361.7552431500694</v>
       </c>
       <c r="AG38" t="n">
-        <v>245.4066129818917</v>
+        <v>1088.244320095842</v>
       </c>
       <c r="AH38" t="n">
-        <v>736.350308662066</v>
+        <v>56.54027260303777</v>
       </c>
       <c r="AI38" t="n">
-        <v>39.04912305945642</v>
+        <v>5068.17411923776</v>
       </c>
       <c r="AJ38" t="n">
-        <v>3391.127177453646</v>
+        <v>418.3030035545141</v>
       </c>
       <c r="AK38" t="n">
-        <v>284.4557360413481</v>
+        <v>615.5419271705425</v>
       </c>
       <c r="AL38" t="n">
-        <v>427.5849046011606</v>
+        <v>29.99143180150572</v>
       </c>
       <c r="AM38" t="n">
-        <v>19.64741116270058</v>
+        <v>444.761654694626</v>
       </c>
       <c r="AN38" t="n">
-        <v>312.8763501666921</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>49.57238372321793</v>
+        <v>74.29936764681635</v>
       </c>
     </row>
     <row r="39">
@@ -5309,85 +5193,82 @@
         <v>145.5824291809693</v>
       </c>
       <c r="O39" t="n">
-        <v>370.8642177280875</v>
+        <v>52925.23213219141</v>
       </c>
       <c r="P39" t="n">
-        <v>35067.30593344245</v>
+        <v>1764.173678002918</v>
       </c>
       <c r="Q39" t="n">
-        <v>1764.173678002918</v>
+        <v>8214.814794841173</v>
       </c>
       <c r="R39" t="n">
-        <v>5320.120039820642</v>
+        <v>3457.492025819473</v>
       </c>
       <c r="S39" t="n">
-        <v>2181.967301246739</v>
+        <v>316.7985508351481</v>
       </c>
       <c r="T39" t="n">
-        <v>200.9236176577911</v>
+        <v>1301.186685601279</v>
       </c>
       <c r="U39" t="n">
-        <v>810.2915880835113</v>
+        <v>63.63213185191752</v>
       </c>
       <c r="V39" t="n">
-        <v>39.63545671725317</v>
+        <v>4758.680029644814</v>
       </c>
       <c r="W39" t="n">
-        <v>2992.25888933025</v>
+        <v>380.435154319591</v>
       </c>
       <c r="X39" t="n">
-        <v>240.5590743750443</v>
+        <v>536.424370291914</v>
       </c>
       <c r="Y39" t="n">
-        <v>349.7832054383046</v>
+        <v>28.94191725702022</v>
       </c>
       <c r="Z39" t="n">
-        <v>19.13067585897053</v>
+        <v>367.6896704062547</v>
       </c>
       <c r="AA39" t="n">
-        <v>244.5234610277304</v>
+        <v>55.10294063735666</v>
       </c>
       <c r="AB39" t="n">
-        <v>35.94251205015956</v>
+        <v>55910.27223665974</v>
       </c>
       <c r="AC39" t="n">
-        <v>39449.39755025749</v>
+        <v>1863.672904550458</v>
       </c>
       <c r="AD39" t="n">
-        <v>1863.672904550458</v>
+        <v>10123.45191757032</v>
       </c>
       <c r="AE39" t="n">
-        <v>6996.170422808027</v>
+        <v>3871.263591306146</v>
       </c>
       <c r="AF39" t="n">
-        <v>2633.548231568263</v>
+        <v>352.8127242729946</v>
       </c>
       <c r="AG39" t="n">
-        <v>243.8153548261471</v>
+        <v>1096.396840630543</v>
       </c>
       <c r="AH39" t="n">
-        <v>750.5119273600906</v>
+        <v>52.86523640304013</v>
       </c>
       <c r="AI39" t="n">
-        <v>37.20794693855953</v>
+        <v>4967.666088237177</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3384.060158928353</v>
+        <v>405.6785802765957</v>
       </c>
       <c r="AK39" t="n">
-        <v>281.0233017647066</v>
+        <v>597.2075465426423</v>
       </c>
       <c r="AL39" t="n">
-        <v>422.9352106101828</v>
+        <v>27.5037615517082</v>
       </c>
       <c r="AM39" t="n">
-        <v>19.4273677958431</v>
+        <v>444.7319319902334</v>
       </c>
       <c r="AN39" t="n">
-        <v>318.5578013714888</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>49.24057164876664</v>
+        <v>69.86896676293301</v>
       </c>
     </row>
   </sheetData>
